--- a/analysis/saccades/raw_data/ml_hms.xlsx
+++ b/analysis/saccades/raw_data/ml_hms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azafar\Documents\GitHub\eyelink-adhawk-validation-gui\analysis\saccades\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE7236AE-2C72-47A3-BF9F-9D25C30B39BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50E50C8-21B8-4F6A-9F70-4C5B631B6463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C76E834-1292-4248-8CF4-2350EB87BFAB}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB52FF7-BCD7-41E8-9F20-31FB3EF3A310}">
-  <dimension ref="A1:B752"/>
+  <dimension ref="A1:B713"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6002 +419,5690 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7.2813895416449448E-2</v>
+        <v>-3.9665094855799943E-2</v>
       </c>
       <c r="B3">
-        <v>-3.5346829743101438E-2</v>
+        <v>-6.7270459823099316E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.14584714153891998</v>
+        <v>-9.1519755383679957E-2</v>
       </c>
       <c r="B4">
-        <v>-6.2873275148101371E-2</v>
+        <v>-9.9563949285299103E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.20507744139410011</v>
+        <v>-0.15829461403209955</v>
       </c>
       <c r="B5">
-        <v>-8.2361249777701317E-2</v>
+        <v>-0.1069799746704998</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.23952298398095984</v>
+        <v>-0.22554584777076947</v>
       </c>
       <c r="B6">
-        <v>-9.2072535402401456E-2</v>
+        <v>-9.9440208030399546E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.24395726982514976</v>
+        <v>-0.28408974366336981</v>
       </c>
       <c r="B7">
-        <v>-9.2988817828400627E-2</v>
+        <v>-8.1456319651000086E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.21892438766569988</v>
+        <v>-0.3255595116819503</v>
       </c>
       <c r="B8">
-        <v>-8.566100467240112E-2</v>
+        <v>-6.0340094918400311E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.17154383951467</v>
+        <v>-0.33594875471140018</v>
       </c>
       <c r="B9">
-        <v>-7.2594582567599986E-2</v>
+        <v>-4.3743708158199723E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.12721821770079966</v>
+        <v>-0.30545646144847005</v>
       </c>
       <c r="B10">
-        <v>-5.8824941700700961E-2</v>
+        <v>-3.0782542922199951E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.12076327923101005</v>
+        <v>-0.22810355841611951</v>
       </c>
       <c r="B11">
-        <v>-4.9496288574900404E-2</v>
+        <v>-2.3666321875399632E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.16677711521140992</v>
+        <v>-0.12141193131086947</v>
       </c>
       <c r="B12">
-        <v>-4.4894865379800919E-2</v>
+        <v>-2.0054805217899485E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.23345968794993954</v>
+        <v>-1.9484559492609854E-2</v>
       </c>
       <c r="B13">
-        <v>-2.6344657954501471E-2</v>
+        <v>-2.0236622077799638E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.29986711797713994</v>
+        <v>8.5065531153560414E-2</v>
       </c>
       <c r="B14">
-        <v>-3.0063135002800223E-2</v>
+        <v>-2.5557682091198686E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.36724188842155936</v>
+        <v>0.11456026154106969</v>
       </c>
       <c r="B15">
-        <v>-3.4660886404299873E-2</v>
+        <v>-3.6797924036198637E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.42679051982474991</v>
+        <v>9.1228508610520009E-2</v>
       </c>
       <c r="B16">
-        <v>-3.3809827513101354E-2</v>
+        <v>-5.7364639233899339E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.45776521242615953</v>
+        <v>1.3373598891550209E-2</v>
       </c>
       <c r="B17">
-        <v>-2.8292685624400349E-2</v>
+        <v>-8.7520216606998602E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.45700362658267935</v>
+        <v>-0.11847963732510003</v>
       </c>
       <c r="B18">
-        <v>-2.7261832158000487E-2</v>
+        <v>-0.12769080439349878</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.43482591596482933</v>
+        <v>-0.27848412709724002</v>
       </c>
       <c r="B19">
-        <v>-3.6270073789101076E-2</v>
+        <v>-0.17881947725109981</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.40224511705073951</v>
+        <v>-0.42187900611317009</v>
       </c>
       <c r="B20">
-        <v>-5.2817729995901175E-2</v>
+        <v>-0.22898475754849912</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.36442916951213</v>
+        <v>-0.51366779306157007</v>
       </c>
       <c r="B21">
-        <v>-6.8487733891799962E-2</v>
+        <v>-0.26363350248839978</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.32848973787797942</v>
+        <v>-0.53159563492831996</v>
       </c>
       <c r="B22">
-        <v>-8.908562400380049E-2</v>
+        <v>-0.28062118438399963</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.30243770949963977</v>
+        <v>-0.47423440501029024</v>
       </c>
       <c r="B23">
-        <v>-0.11103142737550087</v>
+        <v>-0.2803342914325988</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.30392998402040927</v>
+        <v>-0.35721849619197954</v>
       </c>
       <c r="B24">
-        <v>-0.12764318616640047</v>
+        <v>-0.26247738095639939</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.34814368217762937</v>
+        <v>-0.2160335523521395</v>
       </c>
       <c r="B25">
-        <v>-0.14272588860490032</v>
+        <v>-0.23726516151679888</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.43502407265239995</v>
+        <v>-9.3986759137820286E-2</v>
       </c>
       <c r="B26">
-        <v>-0.16310993903049997</v>
+        <v>-0.22196964942789954</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.54329383830538003</v>
+        <v>-2.3803756134149978E-2</v>
       </c>
       <c r="B27">
-        <v>-0.17073033851059982</v>
+        <v>-0.22593187483330013</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.68574628988119013</v>
+        <v>-1.2104209632189722E-2</v>
       </c>
       <c r="B28">
-        <v>-0.17237390014640042</v>
+        <v>-0.24056119126519881</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.77932220644269989</v>
+        <v>-5.8188566101439854E-2</v>
       </c>
       <c r="B29">
-        <v>-0.16930974370210095</v>
+        <v>-0.25874499370350001</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.82228542615119959</v>
+        <v>-0.14713740334663949</v>
       </c>
       <c r="B30">
-        <v>-0.17046556624080011</v>
+        <v>-0.27317813906859989</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.81057539296195991</v>
+        <v>-0.25346259617020994</v>
       </c>
       <c r="B31">
-        <v>-0.1778231161187005</v>
+        <v>-0.28123445924289925</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.76664951981029983</v>
+        <v>-0.33731594261954978</v>
       </c>
       <c r="B32">
-        <v>-0.19194355356269988</v>
+        <v>-0.28251340734279928</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.69974529984307932</v>
+        <v>-0.37524278322880988</v>
       </c>
       <c r="B33">
-        <v>-0.21678418868220106</v>
+        <v>-0.27721070344169974</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.60609931638291936</v>
+        <v>-0.36717993010478978</v>
       </c>
       <c r="B34">
-        <v>-0.25214344634670027</v>
+        <v>-0.26905318403459866</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.4833276293527593</v>
+        <v>-0.32167391402632006</v>
       </c>
       <c r="B35">
-        <v>-0.31145189624240111</v>
+        <v>-0.25600987600479996</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.34901427196792945</v>
+        <v>-0.25648081449011961</v>
       </c>
       <c r="B36">
-        <v>-0.39546015950750046</v>
+        <v>-0.23725618923549874</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.24011296756230927</v>
+        <v>-0.18692537425588007</v>
       </c>
       <c r="B37">
-        <v>-0.50330598039739982</v>
+        <v>-0.21072486304749916</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.17144464678480009</v>
+        <v>-0.12651524875304965</v>
       </c>
       <c r="B38">
-        <v>-0.65057602264950098</v>
+        <v>-0.18146520438889979</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.12003876714412964</v>
+        <v>-8.6653439361529472E-2</v>
       </c>
       <c r="B39">
-        <v>-0.81029237584129987</v>
+        <v>-0.15934619269540029</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7.795821759728927E-2</v>
+        <v>-6.7761421106060205E-2</v>
       </c>
       <c r="B40">
-        <v>-0.95792442984830117</v>
+        <v>-0.15069765296540005</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>4.8881398740629578E-2</v>
+        <v>-6.6986102955589821E-2</v>
       </c>
       <c r="B41">
-        <v>-1.0696910467430012</v>
+        <v>-0.15116022911939986</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9.2163038848296353E-3</v>
+        <v>-8.3914443810090056E-2</v>
       </c>
       <c r="B42">
-        <v>-1.1369615065661005</v>
+        <v>-0.15854025332489918</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-4.2638356643050379E-2</v>
+        <v>-0.11435330104584018</v>
       </c>
       <c r="B43">
-        <v>-1.1692549960283003</v>
+        <v>-0.17140377280189867</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-0.10941321529146997</v>
+        <v>-0.15431411840842024</v>
       </c>
       <c r="B44">
-        <v>-1.176671021413501</v>
+        <v>-0.19070326312549923</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-0.17666444903013989</v>
+        <v>-0.17916838423029002</v>
       </c>
       <c r="B45">
-        <v>-1.1691312547734007</v>
+        <v>-0.21512432013629912</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-0.23520834492274023</v>
+        <v>-0.17182314630677986</v>
       </c>
       <c r="B46">
-        <v>-1.1511473663940013</v>
+        <v>-0.24086497423819964</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-0.27667811294132072</v>
+        <v>-0.13717170094937003</v>
       </c>
       <c r="B47">
-        <v>-1.1300311416614015</v>
+        <v>-0.27217124787999936</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-0.2870673559707706</v>
+        <v>-8.5712486485899575E-2</v>
       </c>
       <c r="B48">
-        <v>-1.1134347549012009</v>
+        <v>-0.29704378933279862</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-0.25657506270784047</v>
+        <v>-3.2352825821590159E-2</v>
       </c>
       <c r="B49">
-        <v>-1.1004735896652011</v>
+        <v>-0.30898421017379896</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-0.17922215967548993</v>
+        <v>4.926477006629959E-3</v>
       </c>
       <c r="B50">
-        <v>-1.0933573686184008</v>
+        <v>-0.30724849128930032</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-7.2530532570239892E-2</v>
+        <v>2.7235274776820084E-2</v>
       </c>
       <c r="B51">
-        <v>-1.0897458519609007</v>
+        <v>-0.29011472454979881</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2.9396839248019724E-2</v>
+        <v>3.0636636733049727E-2</v>
       </c>
       <c r="B52">
-        <v>-1.0899276688208008</v>
+        <v>-0.26257161418519992</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.13394692989418999</v>
+        <v>8.367417952659828E-3</v>
       </c>
       <c r="B53">
-        <v>-1.0952487288341999</v>
+        <v>-0.22947727842660015</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.16344166028169926</v>
+        <v>-4.0663973043649548E-2</v>
       </c>
       <c r="B54">
-        <v>-1.1064889707791998</v>
+        <v>-0.19904127478150002</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.14010990735114959</v>
+        <v>-0.11006024506083989</v>
       </c>
       <c r="B55">
-        <v>-1.1270556859769005</v>
+        <v>-0.17402893485649962</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6.2254997632179787E-2</v>
+        <v>-0.17342700780891995</v>
       </c>
       <c r="B56">
-        <v>-1.1572112633499998</v>
+        <v>-0.15518088686119924</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>-6.9598238584470451E-2</v>
+        <v>-0.20161147743383978</v>
       </c>
       <c r="B57">
-        <v>-1.1973818511365</v>
+        <v>-0.14688099834750012</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>-0.22960272835661044</v>
+        <v>-0.18281423602329028</v>
       </c>
       <c r="B58">
-        <v>-1.248510523994101</v>
+        <v>-0.14729472471269922</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>-0.37299760737254051</v>
+        <v>-0.12352555126302978</v>
       </c>
       <c r="B59">
-        <v>-1.2986758042915003</v>
+        <v>-0.16015886680869862</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>-0.46478639432094049</v>
+        <v>-3.7551303789840063E-2</v>
       </c>
       <c r="B60">
-        <v>-1.333324549231401</v>
+        <v>-0.18128938650360027</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>-0.48271423618769038</v>
+        <v>5.8826797693019905E-2</v>
       </c>
       <c r="B61">
-        <v>-1.3503122311270008</v>
+        <v>-0.20606435276259916</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>-0.42535300626966066</v>
+        <v>0.14649738837506021</v>
       </c>
       <c r="B62">
-        <v>-1.3500253381756</v>
+        <v>-0.24133505313269943</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>-0.30833709745134996</v>
+        <v>0.21475739676962036</v>
       </c>
       <c r="B63">
-        <v>-1.3321684276994006</v>
+        <v>-0.25381411932050035</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>-0.16715215361150992</v>
+        <v>0.27508574799278041</v>
       </c>
       <c r="B64">
-        <v>-1.3069562082598001</v>
+        <v>-0.25971308462239939</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>-4.5105360397190708E-2</v>
+        <v>0.32648270482342046</v>
       </c>
       <c r="B65">
-        <v>-1.2916606961709007</v>
+        <v>-0.26167574559399931</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2.50776426064796E-2</v>
+        <v>0.34930005995131985</v>
       </c>
       <c r="B66">
-        <v>-1.2956229215763013</v>
+        <v>-0.26013379351519994</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3.6777189108439856E-2</v>
+        <v>0.31510564224183035</v>
       </c>
       <c r="B67">
-        <v>-1.3102522380082</v>
+        <v>-0.25611035924889869</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>-9.3071673608102756E-3</v>
+        <v>0.22662804874119047</v>
       </c>
       <c r="B68">
-        <v>-1.3284360404465012</v>
+        <v>-0.24977238934310009</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>-9.8256004606009917E-2</v>
+        <v>0.13423233734452023</v>
       </c>
       <c r="B69">
-        <v>-1.3428691858116011</v>
+        <v>-0.24065839450079984</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>-0.20458119742958036</v>
+        <v>8.0808981284500092E-2</v>
       </c>
       <c r="B70">
-        <v>-1.3509255059859004</v>
+        <v>-0.23870259072960032</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>-0.2884345438789202</v>
+        <v>7.0410878907829932E-2</v>
       </c>
       <c r="B71">
-        <v>-1.3522044540858005</v>
+        <v>-0.23885788737899993</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>-0.32636138448818031</v>
+        <v>9.1677434249969991E-2</v>
       </c>
       <c r="B72">
-        <v>-1.3469017501847009</v>
+        <v>-0.24101193542109911</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>-0.3182985313641602</v>
+        <v>0.12368572384924992</v>
       </c>
       <c r="B73">
-        <v>-1.3387442307775999</v>
+        <v>-0.24327548818909861</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>-0.27279251528569048</v>
+        <v>0.15280428484923991</v>
       </c>
       <c r="B74">
-        <v>-1.3257009227478012</v>
+        <v>-0.24285384617749983</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>-0.20759941574949003</v>
+        <v>0.16974080853097018</v>
       </c>
       <c r="B75">
-        <v>-1.3069472359784999</v>
+        <v>-0.23815604518270028</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>-0.13804397551525049</v>
+        <v>0.17192514343144971</v>
       </c>
       <c r="B76">
-        <v>-1.2804159097905004</v>
+        <v>-0.23210920426719994</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>-7.7633850012420069E-2</v>
+        <v>0.16044479857974991</v>
       </c>
       <c r="B77">
-        <v>-1.251156251131901</v>
+        <v>-0.22784275440089985</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>-3.7772040620899894E-2</v>
+        <v>0.14136196629675002</v>
       </c>
       <c r="B78">
-        <v>-1.2290372394384015</v>
+        <v>-0.22768715699299946</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>-1.8880022365430627E-2</v>
+        <v>0.12475526280840032</v>
       </c>
       <c r="B79">
-        <v>-1.2203886997084012</v>
+        <v>-0.23198932912220016</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>-1.8104704214960243E-2</v>
+        <v>0.11413367320206991</v>
       </c>
       <c r="B80">
-        <v>-1.2208512758624011</v>
+        <v>-0.23946917140940016</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>-3.5033045069460478E-2</v>
+        <v>8.1162956855510338E-2</v>
       </c>
       <c r="B81">
-        <v>-1.2282313000679004</v>
+        <v>-0.25043242913899988</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>-6.5471902305210605E-2</v>
+        <v>0.11269753582894015</v>
       </c>
       <c r="B82">
-        <v>-1.2410948195448999</v>
+        <v>-0.26595725607269927</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>-0.10543271966779066</v>
+        <v>0.18401825465362975</v>
       </c>
       <c r="B83">
-        <v>-1.2603943098685004</v>
+        <v>-0.28784866750499916</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>-0.13028698548966045</v>
+        <v>0.29421312425707047</v>
       </c>
       <c r="B84">
-        <v>-1.2848153668793003</v>
+        <v>-0.31911198230520021</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>-0.12294174756615028</v>
+        <v>0.41366419935951004</v>
       </c>
       <c r="B85">
-        <v>-1.3105560209812008</v>
+        <v>-0.35175824845109993</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>-8.8290302208740457E-2</v>
+        <v>0.50740010734122976</v>
       </c>
       <c r="B86">
-        <v>-1.3418622946230006</v>
+        <v>-0.37942383773589938</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>-3.6831087745269997E-2</v>
+        <v>0.55516708302400986</v>
       </c>
       <c r="B87">
-        <v>-1.3667348360757998</v>
+        <v>-0.40156160688139941</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1.6528572919039419E-2</v>
+        <v>0.55573351682471017</v>
       </c>
       <c r="B88">
-        <v>-1.3786752569168002</v>
+        <v>-0.40517516513959961</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>5.3807875747259537E-2</v>
+        <v>0.49932520821447035</v>
       </c>
       <c r="B89">
-        <v>-1.3769395380323015</v>
+        <v>-0.40707393950470028</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>7.6116673517449662E-2</v>
+        <v>0.39730348484243017</v>
       </c>
       <c r="B90">
-        <v>-1.3598057712928</v>
+        <v>-0.40654430598019964</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>7.9518035473679305E-2</v>
+        <v>0.28598276994442973</v>
       </c>
       <c r="B91">
-        <v>-1.3322626609282011</v>
+        <v>-0.40610394875089995</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5.7248816693289406E-2</v>
+        <v>0.2074972224919005</v>
       </c>
       <c r="B92">
-        <v>-1.2991683251696013</v>
+        <v>-0.40439096650290018</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>8.2174256969800297E-3</v>
+        <v>0.17687675251455026</v>
       </c>
       <c r="B93">
-        <v>-1.2687323215245012</v>
+        <v>-0.40460394384039944</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>-6.1178846320210312E-2</v>
+        <v>0.19933919585098003</v>
       </c>
       <c r="B94">
-        <v>-1.2437199815995008</v>
+        <v>-0.40732000134589974</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>-0.12454560906829037</v>
+        <v>0.26175676406067971</v>
       </c>
       <c r="B95">
-        <v>-1.2248719336042004</v>
+        <v>-0.4091021707411997</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>-0.1527300786932102</v>
+        <v>0.34097279285850046</v>
       </c>
       <c r="B96">
-        <v>-1.2165720450905013</v>
+        <v>-0.40385649235300036</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>-0.1339328372826607</v>
+        <v>0.42533439894156988</v>
       </c>
       <c r="B97">
-        <v>-1.2169857714557004</v>
+        <v>-0.38322007071669972</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>-7.4644152522400198E-2</v>
+        <v>0.50397237565687014</v>
       </c>
       <c r="B98">
-        <v>-1.2298499135516998</v>
+        <v>-0.34875358487659902</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1.1330094950789515E-2</v>
+        <v>0.56296021964598975</v>
       </c>
       <c r="B99">
-        <v>-1.2509804332466015</v>
+        <v>-0.3110095835104989</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.10770819643364948</v>
+        <v>0.59691996828269023</v>
       </c>
       <c r="B100">
-        <v>-1.2757553995056004</v>
+        <v>-0.28056391416449955</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.19537878711568979</v>
+        <v>0.60672535586927001</v>
       </c>
       <c r="B101">
-        <v>-1.3110260998757006</v>
+        <v>-0.26029905687569865</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.26363879551024993</v>
+        <v>0.58926551210891986</v>
       </c>
       <c r="B102">
-        <v>-1.3235051660635015</v>
+        <v>-0.25025202423860016</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.32396714673340998</v>
+        <v>0.53195440754654033</v>
       </c>
       <c r="B103">
-        <v>-1.3294041313654006</v>
+        <v>-0.2543670096020989</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.37536410356405003</v>
+        <v>0.44318012828986042</v>
       </c>
       <c r="B104">
-        <v>-1.3313667923370005</v>
+        <v>-0.27050627112510028</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.39818145869194943</v>
+        <v>0.34974401418098022</v>
       </c>
       <c r="B105">
-        <v>-1.3298248402582011</v>
+        <v>-0.29421219570999924</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.36398704098245993</v>
+        <v>0.25496232920585005</v>
       </c>
       <c r="B106">
-        <v>-1.3258014059918999</v>
+        <v>-0.31982120786999957</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.27550944748182005</v>
+        <v>0.16863216251415025</v>
       </c>
       <c r="B107">
-        <v>-1.3194634360861013</v>
+        <v>-0.34166905908649881</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.1831137360851498</v>
+        <v>9.8079266165590262E-2</v>
       </c>
       <c r="B108">
-        <v>-1.310349441243801</v>
+        <v>-0.35648575592169962</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.12969038002512967</v>
+        <v>8.3341085866379672E-2</v>
       </c>
       <c r="B109">
-        <v>-1.3083936374726015</v>
+        <v>-0.36560422801169956</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.11929227764845951</v>
+        <v>0.11603285063378976</v>
       </c>
       <c r="B110">
-        <v>-1.3085489341220011</v>
+        <v>-0.36890735799410024</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.14055883299059957</v>
+        <v>0.18757453467889018</v>
       </c>
       <c r="B111">
-        <v>-1.3107029821641003</v>
+        <v>-0.36903698903859983</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.1725671225898795</v>
+        <v>0.27306800983862978</v>
       </c>
       <c r="B112">
-        <v>-1.3129665349320998</v>
+        <v>-0.36864931935340017</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0.20168568358986949</v>
+        <v>0.35697230400358038</v>
       </c>
       <c r="B113">
-        <v>-1.312544892920501</v>
+        <v>-0.37204776019470032</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.21862220727159976</v>
+        <v>0.42195381128925025</v>
       </c>
       <c r="B114">
-        <v>-1.3078470919257015</v>
+        <v>-0.39729524554729956</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.22080654217207929</v>
+        <v>0.45089938822090048</v>
       </c>
       <c r="B115">
-        <v>-1.3018002510102011</v>
+        <v>-0.41070213441319936</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>0.20932619732037949</v>
+        <v>0.45205518072167994</v>
       </c>
       <c r="B116">
-        <v>-1.297533801143901</v>
+        <v>-0.43246238905989998</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>0.1902433650373796</v>
+        <v>0.43553743936567013</v>
       </c>
       <c r="B117">
-        <v>-1.2973782037360007</v>
+        <v>-0.4575460958565003</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0.1736366615490299</v>
+        <v>0.42439443687576972</v>
       </c>
       <c r="B118">
-        <v>-1.3016803758652014</v>
+        <v>-0.47950071775909997</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>0.16301507194269949</v>
+        <v>0.42203761919444993</v>
       </c>
       <c r="B119">
-        <v>-1.3091602181524014</v>
+        <v>-0.49619560239909966</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.13004435559613992</v>
+        <v>0.42100578670467037</v>
       </c>
       <c r="B120">
-        <v>-1.3201234758820011</v>
+        <v>-0.50774857286359953</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.16157893456956973</v>
+        <v>0.41115546089547994</v>
       </c>
       <c r="B121">
-        <v>-1.3356483028157005</v>
+        <v>-0.51568585938879963</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>0.23289965339425933</v>
+        <v>0.3832290488869905</v>
       </c>
       <c r="B122">
-        <v>-1.3575397142480004</v>
+        <v>-0.52104384930500025</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>0.34309452299770005</v>
+        <v>0.33552705009716988</v>
       </c>
       <c r="B123">
-        <v>-1.3888030290482014</v>
+        <v>-0.52094938348319886</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>0.46254559810013962</v>
+        <v>0.31460752892666033</v>
       </c>
       <c r="B124">
-        <v>-1.4214492951941011</v>
+        <v>-0.51442720403940001</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.55628150608185933</v>
+        <v>0.27231055941481053</v>
       </c>
       <c r="B125">
-        <v>-1.4491148844789006</v>
+        <v>-0.49963205631079965</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.60404848176463943</v>
+        <v>0.24341664076523983</v>
       </c>
       <c r="B126">
-        <v>-1.4712526536244006</v>
+        <v>-0.47842817136819882</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.60461491556533975</v>
+        <v>0.22747070744175968</v>
       </c>
       <c r="B127">
-        <v>-1.4748662118826008</v>
+        <v>-0.45423471120359871</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.54820660695509993</v>
+        <v>0.21983866121802986</v>
       </c>
       <c r="B128">
-        <v>-1.4767649862477015</v>
+        <v>-0.43603816595429912</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.44618488358305974</v>
+        <v>0.21654775369622037</v>
       </c>
       <c r="B129">
-        <v>-1.4762353527232008</v>
+        <v>-0.41873115752159862</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.3348641686850593</v>
+        <v>0.21959587731184982</v>
       </c>
       <c r="B130">
-        <v>-1.4757949954939011</v>
+        <v>-0.41015350695919928</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.25637862123253008</v>
+        <v>0.2240537805535201</v>
       </c>
       <c r="B131">
-        <v>-1.4740820132459014</v>
+        <v>-0.4135766056087995</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.22575815125517984</v>
+        <v>0.22337056637957975</v>
       </c>
       <c r="B132">
-        <v>-1.4742949905834006</v>
+        <v>-0.42946386830679906</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.24822059459160961</v>
+        <v>0.21817175656671051</v>
       </c>
       <c r="B133">
-        <v>-1.4770110480889009</v>
+        <v>-0.45483183580909881</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.31063816280130929</v>
+        <v>0.21105826012372031</v>
       </c>
       <c r="B134">
-        <v>-1.4787932174842009</v>
+        <v>-0.47926748481459924</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.38985419159913004</v>
+        <v>0.20913656792412016</v>
       </c>
       <c r="B135">
-        <v>-1.4735475390960016</v>
+        <v>-0.48459961733589907</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.47421579768219946</v>
+        <v>0.22123559931176029</v>
       </c>
       <c r="B136">
-        <v>-1.4529111174597009</v>
+        <v>-0.48442248881180028</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.55285377439749972</v>
+        <v>0.24748391604174991</v>
       </c>
       <c r="B137">
-        <v>-1.4184446316196002</v>
+        <v>-0.48008039995809959</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.61184161838661932</v>
+        <v>0.2795606279094498</v>
       </c>
       <c r="B138">
-        <v>-1.3807006302535001</v>
+        <v>-0.47530583857519915</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.64580136702331981</v>
+        <v>0.30254791718192031</v>
       </c>
       <c r="B139">
-        <v>-1.3502549609075007</v>
+        <v>-0.47115433282379904</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0.65560675460989959</v>
+        <v>0.31145270475395037</v>
       </c>
       <c r="B140">
-        <v>-1.3299901036186998</v>
+        <v>-0.46972135135559867</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>0.63814691084954944</v>
+        <v>0.3162150978832905</v>
       </c>
       <c r="B141">
-        <v>-1.3199430709816014</v>
+        <v>-0.47319990642840004</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>0.58083580628716991</v>
+        <v>0.33030570673341053</v>
       </c>
       <c r="B142">
-        <v>-1.3240580563451001</v>
+        <v>-0.48316440534030036</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>0.49206152703049</v>
+        <v>0.36278503139183016</v>
       </c>
       <c r="B143">
-        <v>-1.3401973178681015</v>
+        <v>-0.49530746177589968</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>0.3986254129216098</v>
+        <v>0.40933577337440052</v>
       </c>
       <c r="B144">
-        <v>-1.3639032424530004</v>
+        <v>-0.5030933212962001</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>0.30384372794647962</v>
+        <v>0.47452646393400055</v>
       </c>
       <c r="B145">
-        <v>-1.3895122546130008</v>
+        <v>-0.50377821550069868</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>0.21751356125477983</v>
+        <v>0.52999037796289983</v>
       </c>
       <c r="B146">
-        <v>-1.4113601058295</v>
+        <v>-0.49893427564769866</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>0.14696066490621984</v>
+        <v>0.55604044301755007</v>
       </c>
       <c r="B147">
-        <v>-1.4261768026647008</v>
+        <v>-0.49139978859980005</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>0.13222248460700925</v>
+        <v>0.53724911660674035</v>
       </c>
       <c r="B148">
-        <v>-1.4352952747547008</v>
+        <v>-0.48480988844429973</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>0.16491424937441934</v>
+        <v>0.4661699802662902</v>
       </c>
       <c r="B149">
-        <v>-1.4385984047371014</v>
+        <v>-0.48363790451059963</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>0.23645593341951976</v>
+        <v>0.36521235161567045</v>
       </c>
       <c r="B150">
-        <v>-1.438728035781601</v>
+        <v>-0.48665469060339994</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.32194940857925936</v>
+        <v>0.27288750620741986</v>
       </c>
       <c r="B151">
-        <v>-1.4383403660964014</v>
+        <v>-0.48935990858019984</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.40585370274420995</v>
+        <v>0.21760441357162996</v>
       </c>
       <c r="B152">
-        <v>-1.4417388069377015</v>
+        <v>-0.48851639223599896</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.47083521002987982</v>
+        <v>0.19864587683986024</v>
       </c>
       <c r="B153">
-        <v>-1.4669862922903008</v>
+        <v>-0.4836499930600997</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.49978078696153005</v>
+        <v>0.20665906300869974</v>
       </c>
       <c r="B154">
-        <v>-1.4803931811562006</v>
+        <v>-0.47394903813149902</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.50093657946230952</v>
+        <v>0.23335094153012026</v>
       </c>
       <c r="B155">
-        <v>-1.5021534358029012</v>
+        <v>-0.4685647327089999</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.48441883810629971</v>
+        <v>0.2656619194872798</v>
       </c>
       <c r="B156">
-        <v>-1.5272371425995015</v>
+        <v>-0.45986630972639908</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.4732758356163993</v>
+        <v>0.30215841010801991</v>
       </c>
       <c r="B157">
-        <v>-1.5491917645021012</v>
+        <v>-0.44755389657239952</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.47091901793507951</v>
+        <v>0.3404746932633298</v>
       </c>
       <c r="B158">
-        <v>-1.5658866491421009</v>
+        <v>-0.43247807045309905</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.46988718544529995</v>
+        <v>0.37421192517832047</v>
       </c>
       <c r="B159">
-        <v>-1.5774396196066007</v>
+        <v>-0.41915380159009885</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.46003685963610952</v>
+        <v>0.39147767597811978</v>
       </c>
       <c r="B160">
-        <v>-1.5853769061318008</v>
+        <v>-0.41111137402089959</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.43211044762762008</v>
+        <v>0.37410950838775037</v>
       </c>
       <c r="B161">
-        <v>-1.5907348960480014</v>
+        <v>-0.40907529091609973</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.38440844883779945</v>
+        <v>0.31617798613019055</v>
       </c>
       <c r="B162">
-        <v>-1.5906404302262001</v>
+        <v>-0.41151841420069957</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.36348892766728991</v>
+        <v>0.2343842237418805</v>
       </c>
       <c r="B163">
-        <v>-1.5841182507824012</v>
+        <v>-0.41688383507809945</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.3211919581554401</v>
+        <v>0.16066704117652009</v>
       </c>
       <c r="B164">
-        <v>-1.5693231030538008</v>
+        <v>-0.42449567168289981</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0.29229803950586941</v>
+        <v>0.10940186305537036</v>
       </c>
       <c r="B165">
-        <v>-1.5481192181112</v>
+        <v>-0.43198944986700027</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0.27635210618238926</v>
+        <v>9.0610731900119923E-2</v>
       </c>
       <c r="B166">
-        <v>-1.5239257579465999</v>
+        <v>-0.43497523300530005</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0.26872005995865944</v>
+        <v>9.5508157501500435E-2</v>
       </c>
       <c r="B167">
-        <v>-1.5057292126973003</v>
+        <v>-0.43171315189069936</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0.26542915243684995</v>
+        <v>-4.4336863490899603E-2</v>
       </c>
       <c r="B168">
-        <v>-1.4884222042645998</v>
+        <v>-0.42421205092349901</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0.2684772760524794</v>
+        <v>-4.181386049169955E-2</v>
       </c>
       <c r="B169">
-        <v>-1.4798445537022005</v>
+        <v>-0.41409934058200015</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0.27293517929414968</v>
+        <v>-3.8070797968179804E-2</v>
       </c>
       <c r="B170">
-        <v>-1.4832676523518007</v>
+        <v>-0.40395841060899862</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>0.27225196512020933</v>
+        <v>-3.055582083725028E-2</v>
       </c>
       <c r="B171">
-        <v>-1.4991549150498003</v>
+        <v>-0.39283099788719866</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>0.26705315530734008</v>
+        <v>-1.6371010676819786E-2</v>
       </c>
       <c r="B172">
-        <v>-1.5245228825521</v>
+        <v>-0.37993985221869941</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0.25993965886434989</v>
+        <v>-3.13657212741969E-3</v>
       </c>
       <c r="B173">
-        <v>-1.5489585315576004</v>
+        <v>-0.36705134022959918</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>0.25801796666474974</v>
+        <v>3.7403253566896666E-3</v>
       </c>
       <c r="B174">
-        <v>-1.5542906640789003</v>
+        <v>-0.36702857990499993</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>0.27011699805238987</v>
+        <v>4.95771708713999E-3</v>
       </c>
       <c r="B175">
-        <v>-1.5541135355548015</v>
+        <v>-0.35652407367039984</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.29636531478237949</v>
+        <v>8.4813229057605355E-3</v>
       </c>
       <c r="B176">
-        <v>-1.5497714467011008</v>
+        <v>-0.34575637277989912</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.32844202665007938</v>
+        <v>1.6023194031760113E-2</v>
       </c>
       <c r="B177">
-        <v>-1.5449968853182003</v>
+        <v>-0.335155955199399</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.35142931592254989</v>
+        <v>2.7740984820590064E-2</v>
       </c>
       <c r="B178">
-        <v>-1.5408453795668002</v>
+        <v>-0.32422214016289885</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.36033410349457995</v>
+        <v>3.5130583515750047E-2</v>
       </c>
       <c r="B179">
-        <v>-1.5394123980985999</v>
+        <v>-0.31380736961340006</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.36509649662392007</v>
+        <v>-8.4877321604102107E-3</v>
       </c>
       <c r="B180">
-        <v>-1.5428909531714012</v>
+        <v>-0.30535266336250011</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.37918710547404011</v>
+        <v>-8.5127459754996693E-3</v>
       </c>
       <c r="B181">
-        <v>-1.5528554520833016</v>
+        <v>-0.2986851209000001</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.41166643013245974</v>
+        <v>-1.7912387562999399E-3</v>
       </c>
       <c r="B182">
-        <v>-1.5649985085189009</v>
+        <v>-0.29397213556469914</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.4582171721150301</v>
+        <v>1.2770299601140067E-2</v>
       </c>
       <c r="B183">
-        <v>-1.5727843680392013</v>
+        <v>-0.25915601999740012</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.52340786267463013</v>
+        <v>3.0533957731580408E-2</v>
       </c>
       <c r="B184">
-        <v>-1.5734692622436999</v>
+        <v>-0.27069525082309909</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.57887177670352941</v>
+        <v>5.4330388062080459E-2</v>
       </c>
       <c r="B185">
-        <v>-1.5686253223906998</v>
+        <v>-0.28590043045760005</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.60492184175817965</v>
+        <v>0.1063109374386304</v>
       </c>
       <c r="B186">
-        <v>-1.5610908353428012</v>
+        <v>-0.30254069431710029</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0.58613051534736993</v>
+        <v>0.17358128485129054</v>
       </c>
       <c r="B187">
-        <v>-1.5545009351873009</v>
+        <v>-0.32072579323049943</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>0.51505137900691977</v>
+        <v>0.26172953481535988</v>
       </c>
       <c r="B188">
-        <v>-1.5533289512536008</v>
+        <v>-0.33824020250570008</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>0.41409375035630003</v>
+        <v>0.33259979377790039</v>
       </c>
       <c r="B189">
-        <v>-1.5563457373464011</v>
+        <v>-0.35287798922129987</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>0.32176890494804944</v>
+        <v>0.35384940294856015</v>
       </c>
       <c r="B190">
-        <v>-1.559050955323201</v>
+        <v>-0.3594069606097996</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>0.26648581231225954</v>
+        <v>0.37241004888424012</v>
       </c>
       <c r="B191">
-        <v>-1.5582074389790002</v>
+        <v>-0.35432353758119994</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>0.24752727558048981</v>
+        <v>0.37169185889842993</v>
       </c>
       <c r="B192">
-        <v>-1.5533410398031009</v>
+        <v>-0.34428785364259973</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>0.25554046174932932</v>
+        <v>0.37334011504882003</v>
       </c>
       <c r="B193">
-        <v>-1.5436400848745002</v>
+        <v>-0.33287308054180009</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>0.28223234027074984</v>
+        <v>0.39055450897107047</v>
       </c>
       <c r="B194">
-        <v>-1.5382557794520011</v>
+        <v>-0.32475031626530004</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>0.31454331822790937</v>
+        <v>0.43274372531752014</v>
       </c>
       <c r="B195">
-        <v>-1.5295573564694003</v>
+        <v>-0.32278348871389895</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0.35103980884864949</v>
+        <v>0.49483916483115031</v>
       </c>
       <c r="B196">
-        <v>-1.5172449433154007</v>
+        <v>-0.32346876594639973</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.38935609200395938</v>
+        <v>0.55291027945203997</v>
       </c>
       <c r="B197">
-        <v>-1.5021691171961002</v>
+        <v>-0.32310903371720023</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.42309332391895005</v>
+        <v>0.58813412482797034</v>
       </c>
       <c r="B198">
-        <v>-1.4888448483331</v>
+        <v>-0.32032566868960011</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.44035907471874935</v>
+        <v>0.60223088299843042</v>
       </c>
       <c r="B199">
-        <v>-1.4808024207639008</v>
+        <v>-0.31431985964639964</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.42299090712837994</v>
+        <v>0.59170417779952</v>
       </c>
       <c r="B200">
-        <v>-1.4787663376591009</v>
+        <v>-0.30564130943949941</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.36505938487082013</v>
+        <v>0.56370050834834995</v>
       </c>
       <c r="B201">
-        <v>-1.4812094609437008</v>
+        <v>-0.2977234352112994</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.28326562248251008</v>
+        <v>0.52483894229586969</v>
       </c>
       <c r="B202">
-        <v>-1.4865748818211006</v>
+        <v>-0.30610179667799997</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.20954843991714966</v>
+        <v>0.47914598974432998</v>
       </c>
       <c r="B203">
-        <v>-1.494186718425901</v>
+        <v>-0.31594453184079896</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.15828326179599994</v>
+        <v>0.43140943857777003</v>
       </c>
       <c r="B204">
-        <v>-1.5016804966100015</v>
+        <v>-0.33575267931449915</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.1394921306407495</v>
+        <v>0.37338922549886</v>
       </c>
       <c r="B205">
-        <v>-1.5046662797483012</v>
+        <v>-0.36001525303769988</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.14438955624213001</v>
+        <v>0.30438110550697051</v>
       </c>
       <c r="B206">
-        <v>-1.5014041986337006</v>
+        <v>-0.38703888503629891</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>4.5445352497299751E-3</v>
+        <v>0.24442337619661014</v>
       </c>
       <c r="B207">
-        <v>-1.4939030976665002</v>
+        <v>-0.41393263928899948</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>7.0675382489300276E-3</v>
+        <v>0.21058455236773987</v>
       </c>
       <c r="B208">
-        <v>-1.4837903873250013</v>
+        <v>-0.42744211670200016</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1.0810600772449774E-2</v>
+        <v>0.21360281833081007</v>
       </c>
       <c r="B209">
-        <v>-1.4736494573519998</v>
+        <v>-0.43800901855940033</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1.8325577903379298E-2</v>
+        <v>0.25258023098843996</v>
       </c>
       <c r="B210">
-        <v>-1.4625220446301999</v>
+        <v>-0.44142092541409994</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>3.2510388063809792E-2</v>
+        <v>0.32232033361835999</v>
       </c>
       <c r="B211">
-        <v>-1.4496308989617006</v>
+        <v>-0.43874756057119946</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>4.5744826613209888E-2</v>
+        <v>0.4010881153030903</v>
       </c>
       <c r="B212">
-        <v>-1.4367423869726004</v>
+        <v>-0.42934407164939969</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>5.2621724097319245E-2</v>
+        <v>0.45124864081193028</v>
       </c>
       <c r="B213">
-        <v>-1.4367196266480011</v>
+        <v>-0.41170873235559924</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>5.3839115827769568E-2</v>
+        <v>0.45570169757248991</v>
       </c>
       <c r="B214">
-        <v>-1.426215120413401</v>
+        <v>-0.3892181210618002</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>5.7362721646390114E-2</v>
+        <v>0.42664316685679982</v>
       </c>
       <c r="B215">
-        <v>-1.4154474195229003</v>
+        <v>-0.36577215325169909</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>6.4904592772389691E-2</v>
+        <v>0.38269988136706967</v>
       </c>
       <c r="B216">
-        <v>-1.4048470019424002</v>
+        <v>-0.34709256138969913</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>7.6622383561219642E-2</v>
+        <v>0.34498034700690017</v>
       </c>
       <c r="B217">
-        <v>-1.3939131869059</v>
+        <v>-0.33784728833799882</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>8.4011982256379625E-2</v>
+        <v>0.32632481838439009</v>
       </c>
       <c r="B218">
-        <v>-1.3834984163564013</v>
+        <v>-0.33787976875119874</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>4.0393666580219367E-2</v>
+        <v>0.33162827909659054</v>
       </c>
       <c r="B219">
-        <v>-1.3750437101055013</v>
+        <v>-0.34431931088770007</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>4.0368652765129909E-2</v>
+        <v>0.36888486829399003</v>
       </c>
       <c r="B220">
-        <v>-1.3683761676430013</v>
+        <v>-0.3521175128677001</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>4.7090159984329638E-2</v>
+        <v>0.40073965747405005</v>
       </c>
       <c r="B221">
-        <v>-1.3636631823077003</v>
+        <v>-0.35605104812719901</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>6.1651698341769645E-2</v>
+        <v>0.4395815197859898</v>
       </c>
       <c r="B222">
-        <v>-1.3288470667404013</v>
+        <v>-0.35533132201729956</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>7.9415356472209986E-2</v>
+        <v>0.47278024014811049</v>
       </c>
       <c r="B223">
-        <v>-1.3403862975661003</v>
+        <v>-0.35252202179039926</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.10321178680271004</v>
+        <v>0.49572891964870003</v>
       </c>
       <c r="B224">
-        <v>-1.3555914772006012</v>
+        <v>-0.35108772418059964</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.15519233617925998</v>
+        <v>0.49568040942417024</v>
       </c>
       <c r="B225">
-        <v>-1.3722317410601015</v>
+        <v>-0.35376941687729868</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.22246268359192012</v>
+        <v>0.46174912794869005</v>
       </c>
       <c r="B226">
-        <v>-1.3904168399735006</v>
+        <v>-0.3639216743346001</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.31061093355598945</v>
+        <v>0.39493137319391014</v>
       </c>
       <c r="B227">
-        <v>-1.4079312492487013</v>
+        <v>-0.38350524764729954</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.38148119251852997</v>
+        <v>0.3021194679819299</v>
       </c>
       <c r="B228">
-        <v>-1.4225690359643011</v>
+        <v>-0.41151775425649895</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.40273080168918973</v>
+        <v>0.20736927385251036</v>
       </c>
       <c r="B229">
-        <v>-1.4290980073528008</v>
+        <v>-0.44320034181179935</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.4212914476248697</v>
+        <v>0.13680215046807032</v>
       </c>
       <c r="B230">
-        <v>-1.4240145843242011</v>
+        <v>-0.47327005791759902</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.42057325763905951</v>
+        <v>0.10050849504414039</v>
       </c>
       <c r="B231">
-        <v>-1.4139789003856009</v>
+        <v>-0.49723330356539996</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0.42222151378944961</v>
+        <v>8.8183119700589785E-2</v>
       </c>
       <c r="B232">
-        <v>-1.4025641272848013</v>
+        <v>-0.51170445630669903</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0.43943590771170005</v>
+        <v>8.7258004914939846E-2</v>
       </c>
       <c r="B233">
-        <v>-1.3944413630083012</v>
+        <v>-0.51881907962899909</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0.48162512405814972</v>
+        <v>9.2783069272620367E-2</v>
       </c>
       <c r="B234">
-        <v>-1.3924745354569001</v>
+        <v>-0.50755376851540035</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>0.54372056357177989</v>
+        <v>0.11284045311851987</v>
       </c>
       <c r="B235">
-        <v>-1.3931598126894009</v>
+        <v>-0.50645587125080027</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>0.60179167819266954</v>
+        <v>0.15259530500607976</v>
       </c>
       <c r="B236">
-        <v>-1.3928000804602014</v>
+        <v>-0.50875549181339963</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>0.63701552356859992</v>
+        <v>0.2063545031525198</v>
       </c>
       <c r="B237">
-        <v>-1.3900167154326013</v>
+        <v>-0.51625752242610012</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>0.65111228173905999</v>
+        <v>0.25976715127281036</v>
       </c>
       <c r="B238">
-        <v>-1.3840109063894008</v>
+        <v>-0.52246024633369892</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>0.64058557654014958</v>
+        <v>0.28972315836675033</v>
       </c>
       <c r="B239">
-        <v>-1.3753323561825006</v>
+        <v>-0.52747717117909865</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>0.61258190708897953</v>
+        <v>0.30202646391111987</v>
       </c>
       <c r="B240">
-        <v>-1.3674144819543006</v>
+        <v>-0.53676656659729893</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>0.57372034103649927</v>
+        <v>0.38791440560670054</v>
       </c>
       <c r="B241">
-        <v>-1.3757928434210012</v>
+        <v>-0.53469073492989949</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0.52802738848495956</v>
+        <v>0.37710518905566026</v>
       </c>
       <c r="B242">
-        <v>-1.3856355785838002</v>
+        <v>-0.54720862584809993</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>0.48029083731839961</v>
+        <v>0.38710248010340997</v>
       </c>
       <c r="B243">
-        <v>-1.4054437260575003</v>
+        <v>-0.55329564841489898</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0.42227062423948958</v>
+        <v>0.38924329581570039</v>
       </c>
       <c r="B244">
-        <v>-1.4297062997807011</v>
+        <v>-0.55877415667329977</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.35326250424760008</v>
+        <v>0.41731631355064014</v>
       </c>
       <c r="B245">
-        <v>-1.4567299317793001</v>
+        <v>-0.56307174975130003</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.29330477493723972</v>
+        <v>0.47736265569337011</v>
       </c>
       <c r="B246">
-        <v>-1.4836236860320007</v>
+        <v>-0.54202243031529918</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.25946595110836945</v>
+        <v>0.54750440898469055</v>
       </c>
       <c r="B247">
-        <v>-1.4971331634450014</v>
+        <v>-0.54811664096229862</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.26248421707143965</v>
+        <v>0.61277813854904029</v>
       </c>
       <c r="B248">
-        <v>-1.5077000653024015</v>
+        <v>-0.56010880563009913</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.30146162972906954</v>
+        <v>0.65986233600314037</v>
       </c>
       <c r="B249">
-        <v>-1.5111119721571011</v>
+        <v>-0.57065184113629996</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0.37120173235898957</v>
+        <v>0.68713585888905016</v>
       </c>
       <c r="B250">
-        <v>-1.5084386073142007</v>
+        <v>-0.57158386726469956</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>0.44996951404371988</v>
+        <v>0.70674127423623023</v>
       </c>
       <c r="B251">
-        <v>-1.4990351183924009</v>
+        <v>-0.55501224899489898</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.50013003955255986</v>
+        <v>0.73777807038773968</v>
       </c>
       <c r="B252">
-        <v>-1.4813997790986004</v>
+        <v>-0.51406602892739883</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>0.50458309631311948</v>
+        <v>0.80469220771762018</v>
       </c>
       <c r="B253">
-        <v>-1.4589091678048014</v>
+        <v>-0.4426931822877993</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>0.47552456559742939</v>
+        <v>0.92551692727746016</v>
       </c>
       <c r="B254">
-        <v>-1.4354631999947003</v>
+        <v>-0.31840193023029961</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>0.43158128010769925</v>
+        <v>1.1168804659050702</v>
       </c>
       <c r="B255">
-        <v>-1.4167836081327003</v>
+        <v>-8.8775550130000269E-2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>0.39386174574752975</v>
+        <v>1.4562131258974702</v>
       </c>
       <c r="B256">
-        <v>-1.407538335081</v>
+        <v>0.24513266648250109</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>0.37520621712501967</v>
+        <v>1.9836803590787806</v>
       </c>
       <c r="B257">
-        <v>-1.4075708154941999</v>
+        <v>0.72936068327910064</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0.38050967783722012</v>
+        <v>2.60417356569981</v>
       </c>
       <c r="B258">
-        <v>-1.4140103576307013</v>
+        <v>1.4152747222868012</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>0.41776626703461961</v>
+        <v>3.3802519346577498</v>
       </c>
       <c r="B259">
-        <v>-1.4218085596107013</v>
+        <v>2.1630993843275004</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>0.44962105621467963</v>
+        <v>4.0242309698781007</v>
       </c>
       <c r="B260">
-        <v>-1.4257420948702002</v>
+        <v>2.9067461070169003</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>0.48846291852661938</v>
+        <v>4.5606604611266999</v>
       </c>
       <c r="B261">
-        <v>-1.4250223687603008</v>
+        <v>3.7902807649032013</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>0.52166163888874006</v>
+        <v>5.0319824696936006</v>
       </c>
       <c r="B262">
-        <v>-1.4222130685334005</v>
+        <v>4.5328921561405018</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>0.54461031838932961</v>
+        <v>5.4383075614261998</v>
       </c>
       <c r="B263">
-        <v>-1.4207787709236008</v>
+        <v>4.9008019982429012</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>0.54456180816479982</v>
+        <v>5.8204352907059995</v>
       </c>
       <c r="B264">
-        <v>-1.4234604636202999</v>
+        <v>5.0877974652915015</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>0.51063052668931963</v>
+        <v>6.1721872714579007</v>
       </c>
       <c r="B265">
-        <v>-1.4336127210776013</v>
+        <v>5.149008959170601</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>0.44381277193453972</v>
+        <v>6.4873872777056008</v>
       </c>
       <c r="B266">
-        <v>-1.4531962943903007</v>
+        <v>5.1506126558031013</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>0.35100086672255948</v>
+        <v>6.6895605897717996</v>
       </c>
       <c r="B267">
-        <v>-1.4812088009995001</v>
+        <v>5.1274861142611989</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>0.25625067259313994</v>
+        <v>6.7901272600133993</v>
       </c>
       <c r="B268">
-        <v>-1.5128913885548005</v>
+        <v>5.1016582190564002</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>0.18568354920869989</v>
+        <v>6.8151617241228006</v>
       </c>
       <c r="B269">
-        <v>-1.5429611046606002</v>
+        <v>5.0864052336313996</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0.14938989378476997</v>
+        <v>6.7965062654201009</v>
       </c>
       <c r="B270">
-        <v>-1.5669243503084012</v>
+        <v>5.1123470270479991</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.13706451844121936</v>
+        <v>6.8076307958198008</v>
       </c>
       <c r="B271">
-        <v>-1.5813955030497002</v>
+        <v>5.1161728207903003</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.13613940365556942</v>
+        <v>6.6881145879497996</v>
       </c>
       <c r="B272">
-        <v>-1.5885101263720003</v>
+        <v>5.1196309988199005</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.14166446801324994</v>
+        <v>6.6192859896634992</v>
       </c>
       <c r="B273">
-        <v>-1.5772448152584015</v>
+        <v>5.1210470390690013</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.16172185185914945</v>
+        <v>6.4823116921735995</v>
       </c>
       <c r="B274">
-        <v>-1.5761469179938015</v>
+        <v>5.1191031271236014</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.20147670374670934</v>
+        <v>6.4083458097884005</v>
       </c>
       <c r="B275">
-        <v>-1.5784465385564008</v>
+        <v>5.1255650646984989</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.25523590189314938</v>
+        <v>6.3693373964075999</v>
       </c>
       <c r="B276">
-        <v>-1.5859485691691013</v>
+        <v>5.1294262832822994</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.30864855001343994</v>
+        <v>6.3788726895104997</v>
       </c>
       <c r="B277">
-        <v>-1.5921512930767001</v>
+        <v>5.1505767927381001</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.33860455710737991</v>
+        <v>6.4270177625468996</v>
       </c>
       <c r="B278">
-        <v>-1.5971682179220998</v>
+        <v>5.1742443270698004</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>0.35090786265174945</v>
+        <v>6.4862883921384995</v>
       </c>
       <c r="B279">
-        <v>-1.6064576133403001</v>
+        <v>5.2037963955786992</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>0.43679580434733012</v>
+        <v>6.5248165747361</v>
       </c>
       <c r="B280">
-        <v>-1.6043817816729007</v>
+        <v>5.179070731000202</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>0.42598658779628984</v>
+        <v>6.5221717097871998</v>
       </c>
       <c r="B281">
-        <v>-1.6168996725911011</v>
+        <v>5.1519191645157001</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>0.43598387884403955</v>
+        <v>6.4617057744281006</v>
       </c>
       <c r="B282">
-        <v>-1.6229866951579002</v>
+        <v>5.1237592587666008</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>0.43812469455632996</v>
+        <v>6.3537169701442995</v>
       </c>
       <c r="B283">
-        <v>-1.628465203416301</v>
+        <v>5.1017588349778009</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>0.46619771229126972</v>
+        <v>6.2261869897623008</v>
       </c>
       <c r="B284">
-        <v>-1.6327627964943012</v>
+        <v>5.0934148307283991</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>0.52624405443399969</v>
+        <v>6.1319067615632008</v>
       </c>
       <c r="B285">
-        <v>-1.6117134770583004</v>
+        <v>5.1084692541758017</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>0.59638580772532013</v>
+        <v>6.0768747552990003</v>
       </c>
       <c r="B286">
-        <v>-1.6178076877052998</v>
+        <v>5.1441818833416022</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>0.66165953728966986</v>
+        <v>6.0568422352124003</v>
       </c>
       <c r="B287">
-        <v>-1.6297998523731003</v>
+        <v>5.1885162534175002</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>0.70874373474376995</v>
+        <v>6.0606307930623</v>
       </c>
       <c r="B288">
-        <v>-1.6403428878793012</v>
+        <v>5.2358178941422011</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>0.73601725762967973</v>
+        <v>6.0779121195522006</v>
       </c>
       <c r="B289">
-        <v>-1.6412749140077008</v>
+        <v>5.2823739025053023</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>0.75562267297685981</v>
+        <v>6.1002256979147003</v>
       </c>
       <c r="B290">
-        <v>-1.6247032957379002</v>
+        <v>5.320350179146299</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>0.78665946912836926</v>
+        <v>6.1180052974447001</v>
       </c>
       <c r="B291">
-        <v>-1.5837570756704</v>
+        <v>5.3449248770316018</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>0.85357360645824976</v>
+        <v>6.1243748821419004</v>
       </c>
       <c r="B292">
-        <v>-1.5123842290308005</v>
+        <v>5.3606484732932991</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>0.97439832601808973</v>
+        <v>6.119949310816601</v>
       </c>
       <c r="B293">
-        <v>-1.3880929769733008</v>
+        <v>5.3650522869398998</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1.1657618646456998</v>
+        <v>6.1119032743711994</v>
       </c>
       <c r="B294">
-        <v>-1.1584665968730015</v>
+        <v>5.3566699244801015</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1.5050945246380998</v>
+        <v>6.1192711154169999</v>
       </c>
       <c r="B295">
-        <v>-0.8245583802605001</v>
+        <v>5.3378266933597018</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>2.0325617578194102</v>
+        <v>6.1529766969484996</v>
       </c>
       <c r="B296">
-        <v>-0.34033036346390055</v>
+        <v>5.3195971466482987</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>2.6530549644404395</v>
+        <v>6.2171908588686993</v>
       </c>
       <c r="B297">
-        <v>0.34558367554379998</v>
+        <v>5.3033613545498994</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>3.4291333333983793</v>
+        <v>6.2992139925183004</v>
       </c>
       <c r="B298">
-        <v>1.0934083375844992</v>
+        <v>5.2825278156091997</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>4.0731123686187303</v>
+        <v>6.3852770002955008</v>
       </c>
       <c r="B299">
-        <v>1.8370550602738991</v>
+        <v>5.2539854460536013</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>4.6095418598673294</v>
+        <v>6.4549158403450004</v>
       </c>
       <c r="B300">
-        <v>2.7205897181602001</v>
+        <v>5.2174039361662992</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>5.0808638684342302</v>
+        <v>6.4800333444656992</v>
       </c>
       <c r="B301">
-        <v>3.4632011093975006</v>
+        <v>5.1815717388721012</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>5.4871889601668293</v>
+        <v>6.5186448893225002</v>
       </c>
       <c r="B302">
-        <v>3.8311109514999</v>
+        <v>5.1547764177550022</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>5.8693166894466291</v>
+        <v>6.5125288661041001</v>
       </c>
       <c r="B303">
-        <v>4.0181064185485003</v>
+        <v>5.1287433880986022</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>6.2210686701985303</v>
+        <v>6.4585290161654996</v>
       </c>
       <c r="B304">
-        <v>4.0793179124275998</v>
+        <v>5.1106631955411004</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>6.5362686764462303</v>
+        <v>6.3721395519250006</v>
       </c>
       <c r="B305">
-        <v>4.0809216090601002</v>
+        <v>5.0996996316268017</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>6.7384419885124291</v>
+        <v>6.2737062588363006</v>
       </c>
       <c r="B306">
-        <v>4.0577950675181977</v>
+        <v>5.0950927955301992</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>6.8390086587540289</v>
+        <v>6.1977613295559006</v>
       </c>
       <c r="B307">
-        <v>4.031967172313399</v>
+        <v>5.1089236151265993</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>6.8640431228634302</v>
+        <v>6.1463864501135994</v>
       </c>
       <c r="B308">
-        <v>4.0167141868883984</v>
+        <v>5.1393309481908993</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>6.8453876641607305</v>
+        <v>6.1098234754055998</v>
       </c>
       <c r="B309">
-        <v>4.042655980304998</v>
+        <v>5.2175065539071994</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>6.8565121945604304</v>
+        <v>6.0776875816676998</v>
       </c>
       <c r="B310">
-        <v>4.0464817740472991</v>
+        <v>5.2167289156083001</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>6.7369959866904292</v>
+        <v>6.0503599904546004</v>
       </c>
       <c r="B311">
-        <v>4.0499399520768993</v>
+        <v>5.2169754762004992</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>6.6681673884041288</v>
+        <v>6.0370359458989</v>
       </c>
       <c r="B312">
-        <v>4.0513559923260001</v>
+        <v>5.218624634794601</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>6.5311930909142291</v>
+        <v>6.0259049686669002</v>
       </c>
       <c r="B313">
-        <v>4.0494120803806002</v>
+        <v>5.2226265982941023</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>6.4572272085290301</v>
+        <v>6.0240829899887007</v>
       </c>
       <c r="B314">
-        <v>4.0558740179554977</v>
+        <v>5.2290116777985993</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>6.4182187951482295</v>
+        <v>6.0427810770624006</v>
       </c>
       <c r="B315">
-        <v>4.0597352365392982</v>
+        <v>5.2287470158536991</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>6.4277540882511293</v>
+        <v>6.0732924538699997</v>
       </c>
       <c r="B316">
-        <v>4.0808857459950989</v>
+        <v>5.2118631258412016</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>6.4758991612875292</v>
+        <v>6.0773352281384003</v>
       </c>
       <c r="B317">
-        <v>4.1045532803267992</v>
+        <v>5.1764342202245999</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>6.5351697908791291</v>
+        <v>6.0241024071309006</v>
       </c>
       <c r="B318">
-        <v>4.134105348835698</v>
+        <v>5.1264275526159011</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>6.5736979734767296</v>
+        <v>5.9248445238903997</v>
       </c>
       <c r="B319">
-        <v>4.1093796842572008</v>
+        <v>5.0670266254223009</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>6.5710531085278294</v>
+        <v>5.8299351261909997</v>
       </c>
       <c r="B320">
-        <v>4.0822281177726989</v>
+        <v>5.0017810380197005</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>6.5105871731687301</v>
+        <v>5.7794460171660003</v>
       </c>
       <c r="B321">
-        <v>4.0540682120235996</v>
+        <v>4.9454648595582</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>6.4025983688849291</v>
+        <v>5.780227425216701</v>
       </c>
       <c r="B322">
-        <v>4.0320677882347997</v>
+        <v>4.9147634836597014</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>6.2750683885029304</v>
+        <v>5.8296434986222003</v>
       </c>
       <c r="B323">
-        <v>4.0237237839853979</v>
+        <v>4.8866736855379997</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>6.1807881603038304</v>
+        <v>5.9130996786804992</v>
       </c>
       <c r="B324">
-        <v>4.0387782074328005</v>
+        <v>4.8679878094214999</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>6.1257561540396299</v>
+        <v>5.9811795403656003</v>
       </c>
       <c r="B325">
-        <v>4.074490836598601</v>
+        <v>4.8557243369703009</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>6.1057236339530299</v>
+        <v>6.0157451835412008</v>
       </c>
       <c r="B326">
-        <v>4.118825206674499</v>
+        <v>4.8484229787217004</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>6.1095121918029296</v>
+        <v>6.0007684235159999</v>
       </c>
       <c r="B327">
-        <v>4.1661268473991999</v>
+        <v>4.8395124775304019</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>6.1267935182928301</v>
+        <v>5.9456487830811007</v>
       </c>
       <c r="B328">
-        <v>4.2126828557623011</v>
+        <v>4.8290178575810998</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>6.1491070966553298</v>
+        <v>5.8955567575968004</v>
       </c>
       <c r="B329">
-        <v>4.2506591324032978</v>
+        <v>4.8247607810782007</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>6.1668866961853297</v>
+        <v>5.9075988307043001</v>
       </c>
       <c r="B330">
-        <v>4.2752338302886006</v>
+        <v>4.8349253373186016</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>6.17325628088253</v>
+        <v>5.9774634685512993</v>
       </c>
       <c r="B331">
-        <v>4.2909574265502979</v>
+        <v>4.8552002391188012</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>6.1688307095572306</v>
+        <v>6.049928533135601</v>
       </c>
       <c r="B332">
-        <v>4.2953612401968986</v>
+        <v>4.8814674861684004</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>6.160784673111829</v>
+        <v>6.0753885075951999</v>
       </c>
       <c r="B333">
-        <v>4.2869788777371003</v>
+        <v>4.9099581902917997</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>6.1681525141576294</v>
+        <v>6.0342403706693997</v>
       </c>
       <c r="B334">
-        <v>4.2681356466167006</v>
+        <v>4.9331108350084989</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>6.2018580956891292</v>
+        <v>5.9444187858078994</v>
       </c>
       <c r="B335">
-        <v>4.2499060999052976</v>
+        <v>4.9450455913263021</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>6.2660722576093288</v>
+        <v>5.8447422015811998</v>
       </c>
       <c r="B336">
-        <v>4.2336703078068982</v>
+        <v>4.9462997752377014</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>6.34809539125893</v>
+        <v>5.7971478418757005</v>
       </c>
       <c r="B337">
-        <v>4.2128367688661985</v>
+        <v>4.9381458243318015</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>6.4341583990361304</v>
+        <v>5.8225572578103009</v>
       </c>
       <c r="B338">
-        <v>4.1842943993106001</v>
+        <v>4.9237424256428994</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>6.50379723908563</v>
+        <v>5.8877907647505001</v>
       </c>
       <c r="B339">
-        <v>4.147712889423298</v>
+        <v>4.9003418893347011</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>6.5289147432063288</v>
+        <v>5.9462518409678999</v>
       </c>
       <c r="B340">
-        <v>4.1118806921291</v>
+        <v>4.8676288332313007</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>6.5675262880631298</v>
+        <v>5.9622343103297002</v>
       </c>
       <c r="B341">
-        <v>4.085085371012001</v>
+        <v>4.8365280496051994</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>6.5614102648447297</v>
+        <v>5.9253521061338006</v>
       </c>
       <c r="B342">
-        <v>4.059052341355601</v>
+        <v>4.8119197755220995</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>6.5074104149061291</v>
+        <v>5.849821720519401</v>
       </c>
       <c r="B343">
-        <v>4.0409721487980992</v>
+        <v>4.7939093837967022</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>6.4210209506656302</v>
+        <v>5.7583528121658993</v>
       </c>
       <c r="B344">
-        <v>4.0300085848838005</v>
+        <v>4.7827856195372007</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>6.3225876575769302</v>
+        <v>5.6583129381121005</v>
       </c>
       <c r="B345">
-        <v>4.025401748787198</v>
+        <v>4.7736569800126993</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>6.2466427282965302</v>
+        <v>5.5697751434612996</v>
       </c>
       <c r="B346">
-        <v>4.0392325683835981</v>
+        <v>4.7658837092126021</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>6.195267848854229</v>
+        <v>5.5204425253803997</v>
       </c>
       <c r="B347">
-        <v>4.0696399014478981</v>
+        <v>4.7630215734154007</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>6.1587048741462294</v>
+        <v>5.5205091598836002</v>
       </c>
       <c r="B348">
-        <v>4.1478155071641982</v>
+        <v>4.7737107601234001</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>6.1265689804083294</v>
+        <v>5.5702003025990994</v>
       </c>
       <c r="B349">
-        <v>4.1470378688652989</v>
+        <v>4.8042310963902004</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>6.09924138919523</v>
+        <v>5.6735518026753997</v>
       </c>
       <c r="B350">
-        <v>4.147284429457498</v>
+        <v>4.8463472971357007</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>6.0859173446395296</v>
+        <v>5.8041478185424005</v>
       </c>
       <c r="B351">
-        <v>4.1489335880515998</v>
+        <v>4.8772447054459995</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>6.0747863674075298</v>
+        <v>5.9379089971451009</v>
       </c>
       <c r="B352">
-        <v>4.1529355515511011</v>
+        <v>4.8838477983257</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>6.0729643887293303</v>
+        <v>6.0422334362946</v>
       </c>
       <c r="B353">
-        <v>4.1593206310555981</v>
+        <v>4.8732060429402004</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>6.0916624758030302</v>
+        <v>6.0839516364156001</v>
       </c>
       <c r="B354">
-        <v>4.1590559691106979</v>
+        <v>4.8506017381471018</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>6.1221738526106293</v>
+        <v>6.0617226869923009</v>
       </c>
       <c r="B355">
-        <v>4.1421720790982004</v>
+        <v>4.8190576513837016</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>6.1262166268790299</v>
+        <v>6.0063479227596996</v>
       </c>
       <c r="B356">
-        <v>4.1067431734815987</v>
+        <v>4.7764332199319988</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>6.0729838058715302</v>
+        <v>5.9499848884131996</v>
       </c>
       <c r="B357">
-        <v>4.0567365058728999</v>
+        <v>4.7425858156539995</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>5.9737259226310293</v>
+        <v>5.9039468565370008</v>
       </c>
       <c r="B358">
-        <v>3.9973355786792997</v>
+        <v>4.7363187617135019</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>5.8788165249316293</v>
+        <v>5.8690942134410005</v>
       </c>
       <c r="B359">
-        <v>3.9320899912766993</v>
+        <v>4.748697571566602</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>5.8283274159066298</v>
+        <v>5.8430493028944994</v>
       </c>
       <c r="B360">
-        <v>3.8757738128151988</v>
+        <v>4.7683013673538994</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>5.8291088239573305</v>
+        <v>5.8177618710739996</v>
       </c>
       <c r="B361">
-        <v>3.8450724369167002</v>
+        <v>4.794100879848699</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>5.8785248973628299</v>
+        <v>5.7868625894256009</v>
       </c>
       <c r="B362">
-        <v>3.8169826387949986</v>
+        <v>4.7795105630442016</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>5.9619810774211288</v>
+        <v>5.7507071491729</v>
       </c>
       <c r="B363">
-        <v>3.7982967626784987</v>
+        <v>4.8185707833832012</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>6.0300609391062299</v>
+        <v>5.7238035679079005</v>
       </c>
       <c r="B364">
-        <v>3.7860332902272997</v>
+        <v>4.8458317131486019</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>6.0646265822818304</v>
+        <v>5.7171564687981995</v>
       </c>
       <c r="B365">
-        <v>3.7787319319786992</v>
+        <v>4.8659879282786989</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>6.0496498222566295</v>
+        <v>5.7223996690237993</v>
       </c>
       <c r="B366">
-        <v>3.7698214307874007</v>
+        <v>4.8811174127493011</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>5.9945301818217303</v>
+        <v>5.7362539392021006</v>
       </c>
       <c r="B367">
-        <v>3.7593268108380986</v>
+        <v>4.8915692980759005</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>5.94443815633743</v>
+        <v>5.7526133849989005</v>
       </c>
       <c r="B368">
-        <v>3.7550697343351995</v>
+        <v>4.8924987919022023</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>5.9564802294449297</v>
+        <v>5.7634416111690996</v>
       </c>
       <c r="B369">
-        <v>3.7652342905756004</v>
+        <v>4.8800612408956994</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>6.0263448672919289</v>
+        <v>5.7622522937860001</v>
       </c>
       <c r="B370">
-        <v>3.7855091923758</v>
+        <v>4.8534312610094013</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6.0988099318762306</v>
+        <v>5.7533214679072007</v>
       </c>
       <c r="B371">
-        <v>3.8117764394253992</v>
+        <v>4.8222671866158002</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>6.1242699063358295</v>
+        <v>5.7423275979052999</v>
       </c>
       <c r="B372">
-        <v>3.8402671435487985</v>
+        <v>4.7951770518678991</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>6.0831217694100292</v>
+        <v>5.7390128736765007</v>
       </c>
       <c r="B373">
-        <v>3.8634197882654977</v>
+        <v>4.7711469094966006</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>5.993300184548529</v>
+        <v>5.7453731094083</v>
       </c>
       <c r="B374">
-        <v>3.8753545445833009</v>
+        <v>4.7591613014419991</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>5.8936236003218294</v>
+        <v>5.7542860240716998</v>
       </c>
       <c r="B375">
-        <v>3.8766087284947002</v>
+        <v>4.7618347206806</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>5.8460292406163301</v>
+        <v>5.7612021611667998</v>
       </c>
       <c r="B376">
-        <v>3.8684547775888003</v>
+        <v>4.7731434331546012</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>5.8714386565509304</v>
+        <v>5.7665164017933002</v>
       </c>
       <c r="B377">
-        <v>3.8540513788998982</v>
+        <v>4.7925101390874012</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>5.9366721634911297</v>
+        <v>5.7649056760385005</v>
       </c>
       <c r="B378">
-        <v>3.8306508425916999</v>
+        <v>4.8139983576524017</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>5.9951332397085295</v>
+        <v>5.7622150997966006</v>
       </c>
       <c r="B379">
-        <v>3.7979377864882995</v>
+        <v>4.8386404588916001</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>6.0111157090703298</v>
+        <v>5.7680168342425997</v>
       </c>
       <c r="B380">
-        <v>3.7668370028621982</v>
+        <v>4.8532129459690019</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>5.9742335048744302</v>
+        <v>5.7797574190869998</v>
       </c>
       <c r="B381">
-        <v>3.7422287287790983</v>
+        <v>4.8382761665593996</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>5.8987031192600305</v>
+        <v>5.7894056634020998</v>
       </c>
       <c r="B382">
-        <v>3.724218337053701</v>
+        <v>4.8076665456881003</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>5.8072342109065289</v>
+        <v>5.8345160143027996</v>
       </c>
       <c r="B383">
-        <v>3.7130945727941995</v>
+        <v>4.7754307882619997</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>5.70719433685273</v>
+        <v>5.8695675512633994</v>
       </c>
       <c r="B384">
-        <v>3.7039659332696981</v>
+        <v>4.7492401365282007</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>5.6186565422019292</v>
+        <v>5.9094039743009006</v>
       </c>
       <c r="B385">
-        <v>3.6961926624696009</v>
+        <v>4.7305806739793006</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>5.5693239241210293</v>
+        <v>5.9430003039843005</v>
       </c>
       <c r="B386">
-        <v>3.6933305266723995</v>
+        <v>4.7143037371772003</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>5.5693905586242298</v>
+        <v>5.9729542770947006</v>
       </c>
       <c r="B387">
-        <v>3.7040197133803989</v>
+        <v>4.7044168735306009</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>5.619081701339729</v>
+        <v>6.0064575433474996</v>
       </c>
       <c r="B388">
-        <v>3.7345400496471992</v>
+        <v>4.7016781247505008</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>5.7224332014160293</v>
+        <v>6.0439387085455003</v>
       </c>
       <c r="B389">
-        <v>3.7766562503926995</v>
+        <v>4.7074514529466001</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>5.8530292172830301</v>
+        <v>6.0614653812720007</v>
       </c>
       <c r="B390">
-        <v>3.8075536587029983</v>
+        <v>4.7226345666023022</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>5.9867903958857305</v>
+        <v>6.0391339268369002</v>
       </c>
       <c r="B391">
-        <v>3.8141567515826988</v>
+        <v>4.7451219486185998</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>6.0911148350352295</v>
+        <v>5.9930907934705999</v>
       </c>
       <c r="B392">
-        <v>3.8035149961971992</v>
+        <v>4.7729791463388018</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>6.1328330351562297</v>
+        <v>5.9435855465497003</v>
       </c>
       <c r="B393">
-        <v>3.7809106914041006</v>
+        <v>4.800540888837002</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>6.1106040857329305</v>
+        <v>5.8950752319722994</v>
       </c>
       <c r="B394">
-        <v>3.7493666046407004</v>
+        <v>4.8172787617445003</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>6.0552293215003292</v>
+        <v>5.8509886916323008</v>
       </c>
       <c r="B395">
-        <v>3.7067421731889976</v>
+        <v>4.8184871262802993</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>5.9988662871538292</v>
+        <v>5.8200873444978996</v>
       </c>
       <c r="B396">
-        <v>3.6728947689109983</v>
+        <v>4.8018486467091002</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>5.9528282552776304</v>
+        <v>5.8052639753730997</v>
       </c>
       <c r="B397">
-        <v>3.6666277149705007</v>
+        <v>4.7775155983534994</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>5.91797561218163</v>
+        <v>5.8045892065469999</v>
       </c>
       <c r="B398">
-        <v>3.6790065248236008</v>
+        <v>4.7611604359893001</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>5.891930701635129</v>
+        <v>5.8170836999982996</v>
       </c>
       <c r="B399">
-        <v>3.6986103206108982</v>
+        <v>4.7622617898602009</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>5.8666432698146291</v>
+        <v>5.8474772605064995</v>
       </c>
       <c r="B400">
-        <v>3.7244098331056978</v>
+        <v>4.7834950048155989</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>5.8357439881662305</v>
+        <v>5.8910264515966997</v>
       </c>
       <c r="B401">
-        <v>3.7098195163012004</v>
+        <v>4.8076800920969021</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>5.7995885479135296</v>
+        <v>5.9361359974947003</v>
       </c>
       <c r="B402">
-        <v>3.7488797366402</v>
+        <v>4.8332329468960999</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>5.77268496664853</v>
+        <v>5.958989006420401</v>
       </c>
       <c r="B403">
-        <v>3.7761406664056008</v>
+        <v>4.8697453432485993</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>5.7660378675388291</v>
+        <v>5.9686020690080994</v>
       </c>
       <c r="B404">
-        <v>3.7962968815356977</v>
+        <v>4.9057519224590997</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>5.7712810677644288</v>
+        <v>5.9731491270747998</v>
       </c>
       <c r="B405">
-        <v>3.8114263660062999</v>
+        <v>4.9298533179890995</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>5.7851353379427302</v>
+        <v>5.9795681741255002</v>
       </c>
       <c r="B406">
-        <v>3.8218782513328993</v>
+        <v>4.9385949695044999</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>5.8014947837395301</v>
+        <v>5.9847601486473998</v>
       </c>
       <c r="B407">
-        <v>3.8228077451592011</v>
+        <v>4.9222460139746005</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>5.8123230099097292</v>
+        <v>5.9826166827755998</v>
       </c>
       <c r="B408">
-        <v>3.8103701941526982</v>
+        <v>4.886498327552399</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>5.8111336925266297</v>
+        <v>5.9718294836689001</v>
       </c>
       <c r="B409">
-        <v>3.7837402142664001</v>
+        <v>4.8379625087299019</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>5.8022028666478302</v>
+        <v>5.9656427662227003</v>
       </c>
       <c r="B410">
-        <v>3.752576139872799</v>
+        <v>4.7824748101217018</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>5.7912089966459295</v>
+        <v>5.9855781743038996</v>
       </c>
       <c r="B411">
-        <v>3.7254860051248979</v>
+        <v>4.7353593851140019</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>5.7878942724171303</v>
+        <v>6.0200447299197997</v>
       </c>
       <c r="B412">
-        <v>3.7014558627535994</v>
+        <v>4.6990284414633017</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>5.7942545081489296</v>
+        <v>6.0497482541537</v>
       </c>
       <c r="B413">
-        <v>3.6894702546989979</v>
+        <v>4.6708697581581013</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>5.8031674228123293</v>
+        <v>6.0755657942022996</v>
       </c>
       <c r="B414">
-        <v>3.6921436739375988</v>
+        <v>4.6501500754263994</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>5.8100835599074294</v>
+        <v>6.1067403231535007</v>
       </c>
       <c r="B415">
-        <v>3.7034523864116</v>
+        <v>4.6346382014454015</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>5.8153978005339297</v>
+        <v>6.1398729672916001</v>
       </c>
       <c r="B416">
-        <v>3.7228190923444</v>
+        <v>4.6232685872103012</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>5.81378707477913</v>
+        <v>6.1586268777192004</v>
       </c>
       <c r="B417">
-        <v>3.7443073109094005</v>
+        <v>4.6161322361642014</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>5.8110964985372302</v>
+        <v>6.1440567547778002</v>
       </c>
       <c r="B418">
-        <v>3.7689494121485989</v>
+        <v>4.614567415174502</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>5.8168982329832293</v>
+        <v>6.0982837405310999</v>
       </c>
       <c r="B419">
-        <v>3.7835218992260007</v>
+        <v>4.6181215354174014</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>5.8286388178276294</v>
+        <v>6.0394531447901993</v>
       </c>
       <c r="B420">
-        <v>3.7685851198163984</v>
+        <v>4.6325919907630997</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>5.8382870621427294</v>
+        <v>5.9819240214736009</v>
       </c>
       <c r="B421">
-        <v>3.7379754989450991</v>
+        <v>4.656225970580401</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>5.8833974130434292</v>
+        <v>5.9390722739150004</v>
       </c>
       <c r="B422">
-        <v>3.7057397415189985</v>
+        <v>4.6759272952284014</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>5.9184489500040289</v>
+        <v>5.9110160627921999</v>
       </c>
       <c r="B423">
-        <v>3.6795490897851995</v>
+        <v>4.6876146306113995</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>5.9582853730415302</v>
+        <v>5.8952062871648998</v>
       </c>
       <c r="B424">
-        <v>3.6608896272362994</v>
+        <v>4.6889600071718007</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>5.99188170272493</v>
+        <v>5.8916305981275006</v>
       </c>
       <c r="B425">
-        <v>3.6446126904341991</v>
+        <v>4.6820912134244992</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>6.0218356758353302</v>
+        <v>5.8736089829465001</v>
       </c>
       <c r="B426">
-        <v>3.6347258267875997</v>
+        <v>4.6715043811807995</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>6.0553389420881292</v>
+        <v>5.8587263862747996</v>
       </c>
       <c r="B427">
-        <v>3.6319870780074996</v>
+        <v>4.6521359891188006</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>6.0928201072861299</v>
+        <v>5.8520095667967009</v>
       </c>
       <c r="B428">
-        <v>3.6377604062035989</v>
+        <v>4.6412736927936002</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>6.1103467800126303</v>
+        <v>5.8575713963741993</v>
       </c>
       <c r="B429">
-        <v>3.652943519859301</v>
+        <v>4.6322956945040019</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>6.0880153255775298</v>
+        <v>5.8743049366166993</v>
       </c>
       <c r="B430">
-        <v>3.6754309018755986</v>
+        <v>4.6211133419517019</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>6.0419721922112295</v>
+        <v>5.8975945417715003</v>
       </c>
       <c r="B431">
-        <v>3.7032880995958006</v>
+        <v>4.6065566904871993</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>5.9924669452903299</v>
+        <v>5.9209753055574996</v>
       </c>
       <c r="B432">
-        <v>3.7308498420940008</v>
+        <v>4.591177496613799</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>5.943956630712929</v>
+        <v>5.9674595510987007</v>
       </c>
       <c r="B433">
-        <v>3.7475877150014991</v>
+        <v>4.5779147455315012</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>5.8998700903729304</v>
+        <v>5.9967309191507994</v>
       </c>
       <c r="B434">
-        <v>3.7487960795372981</v>
+        <v>4.5673248156983988</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>5.8689687432385291</v>
+        <v>6.0246669435135995</v>
       </c>
       <c r="B435">
-        <v>3.732157599966099</v>
+        <v>4.5616713778238989</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>5.8541453741137293</v>
+        <v>6.0610870948527005</v>
       </c>
       <c r="B436">
-        <v>3.7078245516104982</v>
+        <v>4.5625859918275005</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>5.8534706052876295</v>
+        <v>6.0411671990965008</v>
       </c>
       <c r="B437">
-        <v>3.6914693892462989</v>
+        <v>4.5696814742309009</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>5.8659650987389291</v>
+        <v>6.006213663858901</v>
       </c>
       <c r="B438">
-        <v>3.6925707431171997</v>
+        <v>4.5833410141033006</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>5.8963586592471291</v>
+        <v>5.9601786578254998</v>
       </c>
       <c r="B439">
-        <v>3.7138039580725977</v>
+        <v>4.6001016951671012</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>5.9399078503373293</v>
+        <v>5.9011637347007007</v>
       </c>
       <c r="B440">
-        <v>3.7379890453539009</v>
+        <v>4.623146755920402</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>5.9850173962353299</v>
+        <v>5.8166599330756004</v>
       </c>
       <c r="B441">
-        <v>3.7635419001530988</v>
+        <v>4.6512417986981021</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>6.0078704051610305</v>
+        <v>5.7160985422143007</v>
       </c>
       <c r="B442">
-        <v>3.8000542965055981</v>
+        <v>4.6707221619614003</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>6.017483467748729</v>
+        <v>5.6384114366999007</v>
       </c>
       <c r="B443">
-        <v>3.8360608757160986</v>
+        <v>4.6781232480176023</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>6.0220305258154294</v>
+        <v>5.6128329343681997</v>
       </c>
       <c r="B444">
-        <v>3.8601622712460983</v>
+        <v>4.6766855017126012</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>6.0284495728661298</v>
+        <v>5.6480658223023994</v>
       </c>
       <c r="B445">
-        <v>3.8689039227614987</v>
+        <v>4.6688664542759</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>6.0336415473880294</v>
+        <v>5.7230151976447008</v>
       </c>
       <c r="B446">
-        <v>3.8525549672315993</v>
+        <v>4.6554296220861993</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>6.0314980815162293</v>
+        <v>5.8168213037690002</v>
       </c>
       <c r="B447">
-        <v>3.8168072808093978</v>
+        <v>4.6385282526250009</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>6.0207108824095297</v>
+        <v>5.9155036364923994</v>
       </c>
       <c r="B448">
-        <v>3.7682714619869007</v>
+        <v>4.6203773880955019</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>6.0145241649633299</v>
+        <v>6.0050683941511007</v>
       </c>
       <c r="B449">
-        <v>3.7127837633787006</v>
+        <v>4.6024283729439013</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>6.0344595730445292</v>
+        <v>6.0936489885448992</v>
       </c>
       <c r="B450">
-        <v>3.6656683383710007</v>
+        <v>4.5826971402645995</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>6.0689261286604292</v>
+        <v>6.2035401615110004</v>
       </c>
       <c r="B451">
-        <v>3.6293373947203005</v>
+        <v>4.5712211326053023</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>6.0986296528943296</v>
+        <v>6.3281162887709002</v>
       </c>
       <c r="B452">
-        <v>3.6011787114151002</v>
+        <v>4.5628825502429997</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>6.1244471929429292</v>
+        <v>6.4330653421249</v>
       </c>
       <c r="B453">
-        <v>3.5804590286833982</v>
+        <v>4.5632137890772988</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>6.1556217218941303</v>
+        <v>6.4835651343089999</v>
       </c>
       <c r="B454">
-        <v>3.5649471547024003</v>
+        <v>4.5691498239343993</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>6.1887543660322297</v>
+        <v>6.4187597708792996</v>
       </c>
       <c r="B455">
-        <v>3.5535775404673</v>
+        <v>4.5800225890742006</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>6.2075082764598299</v>
+        <v>6.3479833101691998</v>
       </c>
       <c r="B456">
-        <v>3.5464411894212002</v>
+        <v>4.5957035505966992</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>6.1929381535184298</v>
+        <v>6.2611486328496007</v>
       </c>
       <c r="B457">
-        <v>3.5448763684315008</v>
+        <v>4.6120754623727009</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>6.1471651392717295</v>
+        <v>6.1868769949695999</v>
       </c>
       <c r="B458">
-        <v>3.5484304886744003</v>
+        <v>4.6221126845149989</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>6.0883345435308289</v>
+        <v>6.1538224269769</v>
       </c>
       <c r="B459">
-        <v>3.5629009440200985</v>
+        <v>4.6238297074672019</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>6.0308054202142305</v>
+        <v>6.1724670097061995</v>
       </c>
       <c r="B460">
-        <v>3.5865349238373998</v>
+        <v>4.6192418820279002</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>5.9879536726556299</v>
+        <v>6.2479629373657009</v>
       </c>
       <c r="B461">
-        <v>3.6062362484854003</v>
+        <v>4.6126056525110997</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>5.9598974615328295</v>
+        <v>6.3383824593132996</v>
       </c>
       <c r="B462">
-        <v>3.6179235838683983</v>
+        <v>4.6070583684021997</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>5.9440876859055294</v>
+        <v>6.4000988663078999</v>
       </c>
       <c r="B463">
-        <v>3.6192689604287995</v>
+        <v>4.6046257113130018</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>5.9405119968681301</v>
+        <v>6.421679262101101</v>
       </c>
       <c r="B464">
-        <v>3.612400166681498</v>
+        <v>4.6065638411749994</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>5.9224903816871297</v>
+        <v>6.3929068169317009</v>
       </c>
       <c r="B465">
-        <v>3.6018133344377983</v>
+        <v>4.6129811332761008</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>5.9076077850154292</v>
+        <v>6.3308190963882005</v>
       </c>
       <c r="B466">
-        <v>3.5824449423757994</v>
+        <v>4.6255788814321015</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>5.9008909655373305</v>
+        <v>6.2475593753464</v>
       </c>
       <c r="B467">
-        <v>3.5715826460505991</v>
+        <v>4.6459159969195021</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>5.9064527951148289</v>
+        <v>6.1603678843740006</v>
       </c>
       <c r="B468">
-        <v>3.5626046477610007</v>
+        <v>4.6728927992954006</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>5.9231863353573289</v>
+        <v>6.0861822053545005</v>
       </c>
       <c r="B469">
-        <v>3.5514222952087007</v>
+        <v>4.6898300198899001</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>5.9464759405121299</v>
+        <v>6.0332094633478004</v>
       </c>
       <c r="B470">
-        <v>3.5368656437441981</v>
+        <v>4.6952562036322014</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>5.9698567042981292</v>
+        <v>6.0185507424244005</v>
       </c>
       <c r="B471">
-        <v>3.5214864498707978</v>
+        <v>4.6957454857342</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>6.0163409498393303</v>
+        <v>6.0586825337845003</v>
       </c>
       <c r="B472">
-        <v>3.5082236987885</v>
+        <v>4.693643968156799</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>6.0456123178914289</v>
+        <v>6.1618468212868009</v>
       </c>
       <c r="B473">
-        <v>3.4976337689553976</v>
+        <v>4.694446638133801</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>6.0735483422542291</v>
+        <v>6.2883366122236009</v>
       </c>
       <c r="B474">
-        <v>3.4919803310808977</v>
+        <v>4.686604211463699</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>6.1099684935933301</v>
+        <v>6.3670260645646994</v>
       </c>
       <c r="B475">
-        <v>3.4928949450844993</v>
+        <v>4.6719991697006016</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>6.0900485978371304</v>
+        <v>6.350698249236201</v>
       </c>
       <c r="B476">
-        <v>3.4999904274878997</v>
+        <v>4.6544882488839008</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>6.0550950625995306</v>
+        <v>6.2440618376906993</v>
       </c>
       <c r="B477">
-        <v>3.5136499673602994</v>
+        <v>4.6385383979204988</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>6.0090600565661294</v>
+        <v>6.1003019470990996</v>
       </c>
       <c r="B478">
-        <v>3.5304106484241</v>
+        <v>4.6250241664187008</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>5.9500451334413302</v>
+        <v>5.9406263532282999</v>
       </c>
       <c r="B479">
-        <v>3.5534557091774008</v>
+        <v>4.6159030630122011</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>5.8655413318162299</v>
+        <v>5.8130242316646008</v>
       </c>
       <c r="B480">
-        <v>3.5815507519551009</v>
+        <v>4.6121869655226995</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>5.7649799409549303</v>
+        <v>5.7214763469446002</v>
       </c>
       <c r="B481">
-        <v>3.6010311152183991</v>
+        <v>4.614490873231901</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>5.6872928354405303</v>
+        <v>5.6799513188983006</v>
       </c>
       <c r="B482">
-        <v>3.6084322012746011</v>
+        <v>4.6179655448326997</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>5.6617143331088293</v>
+        <v>5.6927989471963993</v>
       </c>
       <c r="B483">
-        <v>3.6069944549696</v>
+        <v>4.6172810112293021</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>5.696947221043029</v>
+        <v>5.7652299697668994</v>
       </c>
       <c r="B484">
-        <v>3.5991754075328988</v>
+        <v>4.6089298425734988</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>5.7718965963853304</v>
+        <v>5.8614405828400002</v>
       </c>
       <c r="B485">
-        <v>3.5857385753431981</v>
+        <v>4.5913549679410011</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>5.8657027025096298</v>
+        <v>6.0084559497073009</v>
       </c>
       <c r="B486">
-        <v>3.5688372058819997</v>
+        <v>4.5653762717543991</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>5.964385035233029</v>
+        <v>6.1767363144297001</v>
       </c>
       <c r="B487">
-        <v>3.5506863413525007</v>
+        <v>4.5352498751616999</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>6.0539497928917303</v>
+        <v>6.3134937696488009</v>
       </c>
       <c r="B488">
-        <v>3.5327373262009001</v>
+        <v>4.5077510722919989</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>6.1425303872855288</v>
+        <v>6.3795440333699993</v>
       </c>
       <c r="B489">
-        <v>3.5130060935215983</v>
+        <v>4.4947202639033996</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>6.25242156025163</v>
+        <v>6.3759263761394003</v>
       </c>
       <c r="B490">
-        <v>3.5015300858623011</v>
+        <v>4.498829543904602</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>6.3769976875115297</v>
+        <v>6.3420535584477005</v>
       </c>
       <c r="B491">
-        <v>3.4931915034999985</v>
+        <v>4.4969084688265006</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>6.4819467408655296</v>
+        <v>6.2347507663432999</v>
       </c>
       <c r="B492">
-        <v>3.4935227423342976</v>
+        <v>4.5022889767442003</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>6.5324465330496295</v>
+        <v>6.1310989898549995</v>
       </c>
       <c r="B493">
-        <v>3.4994587771913981</v>
+        <v>4.4913363941267015</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>6.4676411696199292</v>
+        <v>6.0456404118730998</v>
       </c>
       <c r="B494">
-        <v>3.5103315423311994</v>
+        <v>4.5018867406984988</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>6.3968647089098294</v>
+        <v>6.0050894402919006</v>
       </c>
       <c r="B495">
-        <v>3.526012503853698</v>
+        <v>4.4940486891431988</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>6.3100300315902302</v>
+        <v>6.0176282959287004</v>
       </c>
       <c r="B496">
-        <v>3.5423844156296997</v>
+        <v>4.5205182638371006</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>6.2357583937102294</v>
+        <v>6.0683702266212993</v>
       </c>
       <c r="B497">
-        <v>3.5524216377719977</v>
+        <v>4.5474069772034014</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>6.2027038257175295</v>
+        <v>6.1324622170377001</v>
       </c>
       <c r="B498">
-        <v>3.5541386607242007</v>
+        <v>4.5685084829237006</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>6.2213484084468291</v>
+        <v>6.1955867078363003</v>
       </c>
       <c r="B499">
-        <v>3.549550835284899</v>
+        <v>4.5797355281704988</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>6.2968443361063304</v>
+        <v>6.2521980086441999</v>
       </c>
       <c r="B500">
-        <v>3.5429146057680985</v>
+        <v>4.5888038304970991</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>6.3872638580539292</v>
+        <v>6.2850997871207994</v>
       </c>
       <c r="B501">
-        <v>3.5373673216591985</v>
+        <v>4.593000303521201</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>6.4489802650485295</v>
+        <v>6.2921798550508008</v>
       </c>
       <c r="B502">
-        <v>3.5349346645700006</v>
+        <v>4.5838121133492997</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>6.4705606608417305</v>
+        <v>6.2795697572093001</v>
       </c>
       <c r="B503">
-        <v>3.5368727944319982</v>
+        <v>4.5651152181404022</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>6.4417882156723305</v>
+        <v>6.2531567844484996</v>
       </c>
       <c r="B504">
-        <v>3.5432900865330996</v>
+        <v>4.5393714442557993</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>6.3797004951288301</v>
+        <v>6.1969843396122997</v>
       </c>
       <c r="B505">
-        <v>3.5558878346891003</v>
+        <v>4.4881172793818997</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>6.2964407740870296</v>
+        <v>6.0818149223972995</v>
       </c>
       <c r="B506">
-        <v>3.5762249501765009</v>
+        <v>4.3809099109189997</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>6.2092492831146302</v>
+        <v>5.8609777768457008</v>
       </c>
       <c r="B507">
-        <v>3.6032017525523994</v>
+        <v>4.1817227555296999</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>6.1350636040951301</v>
+        <v>5.4886784853873003</v>
       </c>
       <c r="B508">
-        <v>3.6201389731468989</v>
+        <v>3.7902426771061997</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>6.08209086208843</v>
+        <v>4.8840858033064993</v>
       </c>
       <c r="B509">
-        <v>3.6255651568892002</v>
+        <v>3.1483034607891014</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>6.06743214116503</v>
+        <v>4.0423148060193999</v>
       </c>
       <c r="B510">
-        <v>3.6260544389911988</v>
+        <v>2.3159446136483002</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>6.1075639325251299</v>
+        <v>2.7956161951592193</v>
       </c>
       <c r="B511">
-        <v>3.6239529214137978</v>
+        <v>1.4594375608096009</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>6.2107282200274305</v>
+        <v>1.3940888238940499</v>
       </c>
       <c r="B512">
-        <v>3.6247555913907998</v>
+        <v>0.5485052635234009</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>6.3372180109642304</v>
+        <v>2.2531458311103592E-3</v>
       </c>
       <c r="B513">
-        <v>3.6169131647206978</v>
+        <v>-0.39549627763459938</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>6.415907463305329</v>
+        <v>-1.2997529607534695</v>
       </c>
       <c r="B514">
-        <v>3.6023081229576004</v>
+        <v>-1.2988221355615988</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>6.3995796479768305</v>
+        <v>-2.4053131923220201</v>
       </c>
       <c r="B515">
-        <v>3.5847972021408996</v>
+        <v>-2.3327118122861101</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>6.2929432364313289</v>
+        <v>-3.7220070349907797</v>
       </c>
       <c r="B516">
-        <v>3.5688473511774976</v>
+        <v>-3.3352435409102803</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>6.1491833458397291</v>
+        <v>-5.1287500933681098</v>
       </c>
       <c r="B517">
-        <v>3.5553331196756996</v>
+        <v>-4.3760623989204799</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>5.9895077519689295</v>
+        <v>-6.4294761098148729</v>
       </c>
       <c r="B518">
-        <v>3.5462120162691999</v>
+        <v>-5.252483042964819</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>5.8619056304052304</v>
+        <v>-7.3654303705098139</v>
       </c>
       <c r="B519">
-        <v>3.5424959187796983</v>
+        <v>-5.9828958988569898</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>5.7703577456852297</v>
+        <v>-8.1093437687258003</v>
       </c>
       <c r="B520">
-        <v>3.5447998264888998</v>
+        <v>-6.4888110962207497</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>5.7288327176389302</v>
+        <v>-8.5602908743783992</v>
       </c>
       <c r="B521">
-        <v>3.5482744980896985</v>
+        <v>-6.8440162542864194</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>5.7416803459370289</v>
+        <v>-8.8080736560041402</v>
       </c>
       <c r="B522">
-        <v>3.5475899644863009</v>
+        <v>-7.0539725262590292</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>5.814111368507529</v>
+        <v>-8.9148529167589796</v>
       </c>
       <c r="B523">
-        <v>3.5392387958304976</v>
+        <v>-7.1862332701303604</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>5.9103219815806298</v>
+        <v>-8.9237848684764796</v>
       </c>
       <c r="B524">
-        <v>3.5216639211979999</v>
+        <v>-7.2643372276716693</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>6.0573373484479305</v>
+        <v>-8.8815982552629791</v>
       </c>
       <c r="B525">
-        <v>3.4956852250113979</v>
+        <v>-7.3014331686295382</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>6.2256177131703296</v>
+        <v>-8.8142327217070093</v>
       </c>
       <c r="B526">
-        <v>3.4655588284186987</v>
+        <v>-7.3175301306663787</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>6.3623751683894305</v>
+        <v>-8.7475337762312897</v>
       </c>
       <c r="B527">
-        <v>3.4380600255489977</v>
+        <v>-7.3264989861338794</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>6.4284254321106289</v>
+        <v>-8.7001022139075808</v>
       </c>
       <c r="B528">
-        <v>3.4250292171603984</v>
+        <v>-7.3371136510532704</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>6.4248077748800299</v>
+        <v>-8.6834457626694999</v>
       </c>
       <c r="B529">
-        <v>3.4291384971616008</v>
+        <v>-7.3515921081699194</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>6.39093495718833</v>
+        <v>-8.692250932707001</v>
       </c>
       <c r="B530">
-        <v>3.4272174220834994</v>
+        <v>-7.3732119008965089</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>6.2836321650839295</v>
+        <v>-8.7133975528920509</v>
       </c>
       <c r="B531">
-        <v>3.4325979300011991</v>
+        <v>-7.38990252901643</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>6.179980388595629</v>
+        <v>-8.7308203577502397</v>
       </c>
       <c r="B532">
-        <v>3.4216453473837003</v>
+        <v>-7.4090149851832603</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>6.0945218106137293</v>
+        <v>-8.7430403542068404</v>
       </c>
       <c r="B533">
-        <v>3.4321956939554976</v>
+        <v>-7.4309006182582902</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>6.0539708390325302</v>
+        <v>-8.7463763331120301</v>
       </c>
       <c r="B534">
-        <v>3.4243576424001976</v>
+        <v>-7.4557966013822998</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>6.06650969466933</v>
+        <v>-8.7796200209279203</v>
       </c>
       <c r="B535">
-        <v>3.4508272170940995</v>
+        <v>-7.4872478298094993</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>6.1172516253619289</v>
+        <v>-8.7455772041678799</v>
       </c>
       <c r="B536">
-        <v>3.4777159304604002</v>
+        <v>-7.5210032865803491</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>6.1813436157783297</v>
+        <v>-8.7852433368647294</v>
       </c>
       <c r="B537">
-        <v>3.4988174361806994</v>
+        <v>-7.5326700566840987</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>6.2444681065769299</v>
+        <v>-8.8077509212349003</v>
       </c>
       <c r="B538">
-        <v>3.5100444814274976</v>
+        <v>-7.5688417978704692</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>6.3010794073848295</v>
+        <v>-8.8465760606432191</v>
       </c>
       <c r="B539">
-        <v>3.5191127837540979</v>
+        <v>-7.5875114871938898</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>6.333981185861429</v>
+        <v>-8.8986552469270404</v>
       </c>
       <c r="B540">
-        <v>3.5233092567781998</v>
+        <v>-7.6233951077068394</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>6.3410612537914304</v>
+        <v>-8.9587415046499697</v>
       </c>
       <c r="B541">
-        <v>3.5141210666062985</v>
+        <v>-7.6487051708622396</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>6.3284511559499297</v>
+        <v>-9.0099809238697492</v>
       </c>
       <c r="B542">
-        <v>3.495424171397401</v>
+        <v>-7.6681412757501892</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>6.3020381831891292</v>
+        <v>-9.0351083390255091</v>
       </c>
       <c r="B543">
-        <v>3.4696803975127981</v>
+        <v>-7.6771662901614288</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>6.2458657383529292</v>
+        <v>-9.0198877189945605</v>
       </c>
       <c r="B544">
-        <v>3.4184262326388986</v>
+        <v>-7.6803847427411096</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>6.1306963211379291</v>
+        <v>-8.9693972878071797</v>
       </c>
       <c r="B545">
-        <v>3.3112188641759985</v>
+        <v>-7.6820197394178802</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>5.9098591755863303</v>
+        <v>-8.8986984084466396</v>
       </c>
       <c r="B546">
-        <v>3.1120317087866987</v>
+        <v>-7.6864598090562399</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>5.5375598841279299</v>
+        <v>-8.8326476505941898</v>
       </c>
       <c r="B547">
-        <v>2.7205516303631985</v>
+        <v>-7.6949512711110692</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>4.9329672020471289</v>
+        <v>-8.7946473313789006</v>
       </c>
       <c r="B548">
-        <v>2.0786124140461002</v>
+        <v>-7.7053250666304596</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>4.0911962047600294</v>
+        <v>-8.7933224463721</v>
       </c>
       <c r="B549">
-        <v>1.246253566905299</v>
+        <v>-7.7125752026480594</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>2.8444975938998489</v>
+        <v>-8.7988914287500997</v>
       </c>
       <c r="B550">
-        <v>0.38974651406659966</v>
+        <v>-7.71344419912419</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>1.4429702226346794</v>
+        <v>-8.8258995632980799</v>
       </c>
       <c r="B551">
-        <v>-0.5211857832196003</v>
+        <v>-7.7077883236928599</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>5.1134544571739937E-2</v>
+        <v>-8.8620574211011309</v>
       </c>
       <c r="B552">
-        <v>-1.4651873243776006</v>
+        <v>-7.6979378732565991</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>-1.2508715620128399</v>
+        <v>-8.8979643815477996</v>
       </c>
       <c r="B553">
-        <v>-2.3685131823046</v>
+        <v>-7.6886768556813596</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>-2.3564317935813905</v>
+        <v>-8.9272686521508895</v>
       </c>
       <c r="B554">
-        <v>-3.4024028590291113</v>
+        <v>-7.6835710370659402</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>-3.6731256362501501</v>
+        <v>-8.9469761911773809</v>
       </c>
       <c r="B555">
-        <v>-4.4049345876532815</v>
+        <v>-7.6833525606152104</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>-5.0798686946274803</v>
+        <v>-8.9570591987215398</v>
       </c>
       <c r="B556">
-        <v>-5.4457534456634811</v>
+        <v>-7.6874013527335698</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>-6.3805947110742434</v>
+        <v>-8.9451108523275806</v>
       </c>
       <c r="B557">
-        <v>-6.3221740897078202</v>
+        <v>-7.6952014970547804</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>-7.3165489717691843</v>
+        <v>-8.9101430616579904</v>
       </c>
       <c r="B558">
-        <v>-7.052586945599991</v>
+        <v>-7.7072021947227203</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>-8.0604623699851707</v>
+        <v>-8.8628184851469403</v>
       </c>
       <c r="B559">
-        <v>-7.5585021429637509</v>
+        <v>-7.7216963753509091</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>-8.5114094756377696</v>
+        <v>-8.8277005655824503</v>
       </c>
       <c r="B560">
-        <v>-7.9137073010294205</v>
+        <v>-7.7370073073889998</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>-8.7591922572635106</v>
+        <v>-8.8215529054695505</v>
       </c>
       <c r="B561">
-        <v>-8.1236635730020303</v>
+        <v>-7.7514516213575391</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>-8.86597151801835</v>
+        <v>-8.8425751246359603</v>
       </c>
       <c r="B562">
-        <v>-8.2559243168733616</v>
+        <v>-7.7644063103385399</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>-8.87490346973585</v>
+        <v>-8.8912068718489188</v>
       </c>
       <c r="B563">
-        <v>-8.3340282744146705</v>
+        <v>-7.7763246313016499</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>-8.8327168565223495</v>
+        <v>-8.9603199310294706</v>
       </c>
       <c r="B564">
-        <v>-8.3711242153725394</v>
+        <v>-7.7882110413252388</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>-8.7653513229663798</v>
+        <v>-9.035999557441059</v>
       </c>
       <c r="B565">
-        <v>-8.3872211774093799</v>
+        <v>-7.8017096409476796</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>-8.6986523774906601</v>
+        <v>-9.0933328774854303</v>
       </c>
       <c r="B566">
-        <v>-8.3961900328768806</v>
+        <v>-7.8158924921557293</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>-8.6512208151669512</v>
+        <v>-9.1196665475191097</v>
       </c>
       <c r="B567">
-        <v>-8.4068046977962716</v>
+        <v>-7.8291996490418594</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>-8.6345643639288703</v>
+        <v>-9.1171135974995607</v>
       </c>
       <c r="B568">
-        <v>-8.4212831549129206</v>
+        <v>-7.8377692274002797</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>-8.6433695339663714</v>
+        <v>-9.0756828384490298</v>
       </c>
       <c r="B569">
-        <v>-8.4429029476395101</v>
+        <v>-7.8386323821979094</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>-8.6645161541514213</v>
+        <v>-8.9917961037245391</v>
       </c>
       <c r="B570">
-        <v>-8.4595935757594312</v>
+        <v>-7.8315680277851687</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>-8.6819389590096101</v>
+        <v>-8.8747507325829496</v>
       </c>
       <c r="B571">
-        <v>-8.4787060319262615</v>
+        <v>-7.8190696945344786</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>-8.6941589554662109</v>
+        <v>-8.7552723072749004</v>
       </c>
       <c r="B572">
-        <v>-8.5005916650012914</v>
+        <v>-7.8059702651415304</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>-8.6974949343714005</v>
+        <v>-8.6695414290959008</v>
       </c>
       <c r="B573">
-        <v>-8.525487648125301</v>
+        <v>-7.795842895069379</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>-8.7307386221872907</v>
+        <v>-8.6310665497395789</v>
       </c>
       <c r="B574">
-        <v>-8.5569388765525005</v>
+        <v>-7.7790897835670201</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>-8.6966958054272503</v>
+        <v>-8.6378225862664308</v>
       </c>
       <c r="B575">
-        <v>-8.5906943333233503</v>
+        <v>-7.7786996223401701</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>-8.7363619381240998</v>
+        <v>-8.6778752487803299</v>
       </c>
       <c r="B576">
-        <v>-8.6023611034270999</v>
+        <v>-7.7769568832582596</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>-8.7588695224942708</v>
+        <v>-8.7414427826518892</v>
       </c>
       <c r="B577">
-        <v>-8.6385328446134704</v>
+        <v>-7.773934715389009</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>-8.7976946619025895</v>
+        <v>-8.8175021498445094</v>
       </c>
       <c r="B578">
-        <v>-8.657202533936891</v>
+        <v>-7.7725327304368896</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>-8.8497738481864108</v>
+        <v>-8.8891173189200305</v>
       </c>
       <c r="B579">
-        <v>-8.6930861544498406</v>
+        <v>-7.7753517609254086</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>-8.9098601059093401</v>
+        <v>-8.9452397150734999</v>
       </c>
       <c r="B580">
-        <v>-8.7183962176052408</v>
+        <v>-7.7840228546479988</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>-8.9610995251291197</v>
+        <v>-8.9771386560122295</v>
       </c>
       <c r="B581">
-        <v>-8.7378323224931904</v>
+        <v>-7.7972776824976293</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>-8.9862269402848796</v>
+        <v>-8.9862603396930609</v>
       </c>
       <c r="B582">
-        <v>-8.74685733690443</v>
+        <v>-7.8135003759727102</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>-8.971006320253931</v>
+        <v>-8.9766266699500292</v>
       </c>
       <c r="B583">
-        <v>-8.7500757894841108</v>
+        <v>-7.829526391726759</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>-8.9205158890665501</v>
+        <v>-8.9603439841435488</v>
       </c>
       <c r="B584">
-        <v>-8.7517107861608814</v>
+        <v>-7.8445218507031189</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>-8.84981700970601</v>
+        <v>-8.9493040434803497</v>
       </c>
       <c r="B585">
-        <v>-8.7561508557992411</v>
+        <v>-7.8617735433017195</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>-8.7837662518535602</v>
+        <v>-8.9494925752687902</v>
       </c>
       <c r="B586">
-        <v>-8.7646423178540704</v>
+        <v>-7.8801461183637294</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>-8.7457659326382711</v>
+        <v>-8.9586716744008204</v>
       </c>
       <c r="B587">
-        <v>-8.7750161133734608</v>
+        <v>-7.89736539767393</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>-8.7444410476314705</v>
+        <v>-8.9737487340324993</v>
       </c>
       <c r="B588">
-        <v>-8.7822662493910606</v>
+        <v>-7.9081988332077096</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>-8.7500100300094701</v>
+        <v>-8.9832752294499407</v>
       </c>
       <c r="B589">
-        <v>-8.7831352458671912</v>
+        <v>-7.9103454486590401</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>-8.7770181645574503</v>
+        <v>-8.9820260716427107</v>
       </c>
       <c r="B590">
-        <v>-8.7774793704358611</v>
+        <v>-7.90434869190425</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>-8.8131760223605013</v>
+        <v>-8.9650220473760989</v>
       </c>
       <c r="B591">
-        <v>-8.7676289199996003</v>
+        <v>-7.8952551879087789</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>-8.84908298280717</v>
+        <v>-8.9235852826799196</v>
       </c>
       <c r="B592">
-        <v>-8.7583679024243608</v>
+        <v>-7.8859376578426392</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>-8.8783872534102599</v>
+        <v>-8.8604049271038701</v>
       </c>
       <c r="B593">
-        <v>-8.7532620838089414</v>
+        <v>-7.8840032430899498</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>-8.8980947924367513</v>
+        <v>-8.7807455828399803</v>
       </c>
       <c r="B594">
-        <v>-8.7530436073582116</v>
+        <v>-7.8898604416438989</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>-8.9081777999809102</v>
+        <v>-8.7002193611168099</v>
       </c>
       <c r="B595">
-        <v>-8.757092399476571</v>
+        <v>-7.9017795830430284</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>-8.8962294535869511</v>
+        <v>-8.6395630597087489</v>
       </c>
       <c r="B596">
-        <v>-8.7648925437977816</v>
+        <v>-7.9163026797352902</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>-8.8612616629173608</v>
+        <v>-8.6136505281513891</v>
       </c>
       <c r="B597">
-        <v>-8.7768932414657215</v>
+        <v>-7.9348660326627289</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>-8.8139370864063107</v>
+        <v>-8.6201162856684306</v>
       </c>
       <c r="B598">
-        <v>-8.7913874220939103</v>
+        <v>-7.9563925739242496</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>-8.7788191668418207</v>
+        <v>-8.6390421449667798</v>
       </c>
       <c r="B599">
-        <v>-8.806698354132001</v>
+        <v>-7.9767878460895201</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>-8.7726715067289209</v>
+        <v>-8.6523219717504709</v>
       </c>
       <c r="B600">
-        <v>-8.8211426681005403</v>
+        <v>-7.992376890333869</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>-8.7936937258953307</v>
+        <v>-8.6520557865947101</v>
       </c>
       <c r="B601">
-        <v>-8.8340973570815411</v>
+        <v>-7.9981950825890191</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>-8.8423254731082892</v>
+        <v>-8.6388376993073308</v>
       </c>
       <c r="B602">
-        <v>-8.8460156780446511</v>
+        <v>-7.9916843711343599</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>-8.911438532288841</v>
+        <v>-8.6227566812701593</v>
       </c>
       <c r="B603">
-        <v>-8.85790208806824</v>
+        <v>-7.9745128174350892</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>-8.9871181587004294</v>
+        <v>-8.6154318989217309</v>
       </c>
       <c r="B604">
-        <v>-8.8714006876906808</v>
+        <v>-7.9524263095061496</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>-9.0444514787448007</v>
+        <v>-8.6213421789045697</v>
       </c>
       <c r="B605">
-        <v>-8.8855835388987305</v>
+        <v>-7.9336882618143196</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>-9.0707851487784801</v>
+        <v>-8.6347913398301301</v>
       </c>
       <c r="B606">
-        <v>-8.8988906957848606</v>
+        <v>-7.9259157939812486</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>-9.0682321987589312</v>
+        <v>-8.6496869092260802</v>
       </c>
       <c r="B607">
-        <v>-8.9074602741432809</v>
+        <v>-7.9300616386606197</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>-9.0268014397084002</v>
+        <v>-8.6668653335615389</v>
       </c>
       <c r="B608">
-        <v>-8.9083234289409106</v>
+        <v>-7.9417630644554205</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>-8.9429147049839095</v>
+        <v>-8.6976317156938201</v>
       </c>
       <c r="B609">
-        <v>-8.9012590745281699</v>
+        <v>-7.9532465551685494</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>-8.82586933384232</v>
+        <v>-8.7406091105714498</v>
       </c>
       <c r="B610">
-        <v>-8.8887607412774798</v>
+        <v>-7.9600845375150602</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>-8.7063909085342708</v>
+        <v>-8.7821322286785595</v>
       </c>
       <c r="B611">
-        <v>-8.8756613118845316</v>
+        <v>-7.9619280816998899</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>-8.6206600303552712</v>
+        <v>-8.8126518833190488</v>
       </c>
       <c r="B612">
-        <v>-8.8655339418123802</v>
+        <v>-7.9604861246892291</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>-8.5821851509989493</v>
+        <v>-8.8289969216512905</v>
       </c>
       <c r="B613">
-        <v>-8.8487808303100213</v>
+        <v>-7.9617896943397497</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>-8.5889411875258013</v>
+        <v>-8.8357780563273298</v>
       </c>
       <c r="B614">
-        <v>-8.8483906690831713</v>
+        <v>-7.9678410962843085</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>-8.6289938500397003</v>
+        <v>-8.8361633936052399</v>
       </c>
       <c r="B615">
-        <v>-8.8466479300012608</v>
+        <v>-7.9828604945310087</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>-8.6925613839112597</v>
+        <v>-8.8200695143613501</v>
       </c>
       <c r="B616">
-        <v>-8.8436257621320102</v>
+        <v>-8.0039530327567103</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>-8.7686207511038798</v>
+        <v>-8.7915648464083898</v>
       </c>
       <c r="B617">
-        <v>-8.8422237771798908</v>
+        <v>-8.0285784859927585</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>-8.840235920179401</v>
+        <v>-8.7652733894229602</v>
       </c>
       <c r="B618">
-        <v>-8.8450428076684098</v>
+        <v>-8.0561753247280201</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>-8.8963583163328703</v>
+        <v>-8.7556046344866996</v>
       </c>
       <c r="B619">
-        <v>-8.853713901391</v>
+        <v>-8.0870120067113387</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>-8.9282572572715999</v>
+        <v>-8.7681518262044307</v>
       </c>
       <c r="B620">
-        <v>-8.8669687292406305</v>
+        <v>-8.117948055920829</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>-8.9373789409524313</v>
+        <v>-8.8028510460705096</v>
       </c>
       <c r="B621">
-        <v>-8.8831914227157114</v>
+        <v>-8.1451960122485492</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>-8.9277452712093996</v>
+        <v>-8.8512219273860495</v>
       </c>
       <c r="B622">
-        <v>-8.8992174384697602</v>
+        <v>-8.1688904510731195</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>-8.9114625854029192</v>
+        <v>-8.9007429080184792</v>
       </c>
       <c r="B623">
-        <v>-8.9142128974461201</v>
+        <v>-8.1873495390823194</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>-8.9004226447397201</v>
+        <v>-8.9369046150999409</v>
       </c>
       <c r="B624">
-        <v>-8.9314645900447207</v>
+        <v>-8.2042583351162897</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>-8.9006111765281606</v>
+        <v>-8.9483691647943608</v>
       </c>
       <c r="B625">
-        <v>-8.9498371651067306</v>
+        <v>-8.2093579662653102</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>-8.9097902756601908</v>
+        <v>-8.9287646326295498</v>
       </c>
       <c r="B626">
-        <v>-8.9670564444169312</v>
+        <v>-8.2135196667742498</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>-8.9248673352918697</v>
+        <v>-8.8685788021051692</v>
       </c>
       <c r="B627">
-        <v>-8.9778898799507107</v>
+        <v>-8.2179570953955299</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>-8.9343938307093111</v>
+        <v>-8.7801984725702393</v>
       </c>
       <c r="B628">
-        <v>-8.9800364954020413</v>
+        <v>-8.21982585662</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>-8.9331446729020811</v>
+        <v>-8.6962476332969896</v>
       </c>
       <c r="B629">
-        <v>-8.9740397386472512</v>
+        <v>-8.2265087956341993</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>-8.9161406486354693</v>
+        <v>-8.640490726853379</v>
       </c>
       <c r="B630">
-        <v>-8.9649462346517801</v>
+        <v>-8.23329308150897</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>-8.87470388393929</v>
+        <v>-8.6219778115324495</v>
       </c>
       <c r="B631">
-        <v>-8.9556287045856404</v>
+        <v>-8.2408087760112405</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>-8.8115235283632405</v>
+        <v>-8.6399726242478891</v>
       </c>
       <c r="B632">
-        <v>-8.953694289832951</v>
+        <v>-8.2481715308050401</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>-8.7318641840993507</v>
+        <v>-8.6907691987531894</v>
       </c>
       <c r="B633">
-        <v>-8.9595514883869001</v>
+        <v>-8.2546600294016201</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>-8.6513379623761804</v>
+        <v>-8.7552076545820601</v>
       </c>
       <c r="B634">
-        <v>-8.9714706297860296</v>
+        <v>-8.2621548740727793</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>-8.5906816609681194</v>
+        <v>-8.8107799700755098</v>
       </c>
       <c r="B635">
-        <v>-8.9859937264782914</v>
+        <v>-8.2730184964313995</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>-8.5647691294107595</v>
+        <v>-8.857124861975521</v>
       </c>
       <c r="B636">
-        <v>-9.0045570794057301</v>
+        <v>-8.2883140157720003</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>-8.571234886927801</v>
+        <v>-8.8841409207378295</v>
       </c>
       <c r="B637">
-        <v>-9.0260836206672508</v>
+        <v>-8.3088925932005395</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>-8.5901607462261502</v>
+        <v>-8.9087772973030503</v>
       </c>
       <c r="B638">
-        <v>-9.0464788928325213</v>
+        <v>-8.3324422358181902</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>-8.6034405730098413</v>
+        <v>-8.9181978106740694</v>
       </c>
       <c r="B639">
-        <v>-9.0620679370768702</v>
+        <v>-8.3557923172118205</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>-8.6031743878540805</v>
+        <v>-8.8768103570122605</v>
       </c>
       <c r="B640">
-        <v>-9.0678861293320203</v>
+        <v>-8.3748926339199006</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>-8.5899563005667012</v>
+        <v>-8.7742778929697103</v>
       </c>
       <c r="B641">
-        <v>-9.0613754178773611</v>
+        <v>-8.3866307128228197</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>-8.5738752825295297</v>
+        <v>-8.6522244598636</v>
       </c>
       <c r="B642">
-        <v>-9.0442038641780904</v>
+        <v>-8.3906423984664205</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>-8.5665505001811013</v>
+        <v>-8.5640786273029192</v>
       </c>
       <c r="B643">
-        <v>-9.0221173562491508</v>
+        <v>-8.3721090377295386</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>-8.5724607801639401</v>
+        <v>-8.5269782180194298</v>
       </c>
       <c r="B644">
-        <v>-9.0033793085573208</v>
+        <v>-8.3668726202232691</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>-8.5859099410895006</v>
+        <v>-8.5299873074820702</v>
       </c>
       <c r="B645">
-        <v>-8.9956068407242498</v>
+        <v>-8.3638249837550003</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>-8.6008055104854506</v>
+        <v>-8.5563408520103508</v>
       </c>
       <c r="B646">
-        <v>-8.9997526854036209</v>
+        <v>-8.36445931968826</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>-8.6179839348209093</v>
+        <v>-8.6169218378944503</v>
       </c>
       <c r="B647">
-        <v>-9.0114541111984217</v>
+        <v>-8.3677192068957797</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>-8.6487503169531905</v>
+        <v>-8.6855047536110206</v>
       </c>
       <c r="B648">
-        <v>-9.0229376019115506</v>
+        <v>-8.3717393584873001</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>-8.6917277118308203</v>
+        <v>-8.7506402703190709</v>
       </c>
       <c r="B649">
-        <v>-9.0297755842580614</v>
+        <v>-8.3763766932764891</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>-8.7332508299379299</v>
+        <v>-8.8001114086529295</v>
       </c>
       <c r="B650">
-        <v>-9.0316191284428911</v>
+        <v>-8.3784780612573204</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>-8.7637704845784192</v>
+        <v>-8.8207616540229896</v>
       </c>
       <c r="B651">
-        <v>-9.0301771714322303</v>
+        <v>-8.379914214878049</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>-8.7801155229106609</v>
+        <v>-8.8082762542468807</v>
       </c>
       <c r="B652">
-        <v>-9.0314807410827509</v>
+        <v>-8.3828816995566502</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>-8.7868966575867002</v>
+        <v>-8.7638403704737691</v>
       </c>
       <c r="B653">
-        <v>-9.0375321430273097</v>
+        <v>-8.3882291418349091</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>-8.7872819948646104</v>
+        <v>-8.6936719117110108</v>
       </c>
       <c r="B654">
-        <v>-9.0525515412740098</v>
+        <v>-8.3944653820299902</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>-8.7711881156207205</v>
+        <v>-8.6232353394299004</v>
       </c>
       <c r="B655">
-        <v>-9.0736440794997115</v>
+        <v>-8.3996083067439695</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>-8.7426834476677602</v>
+        <v>-8.5706999850496892</v>
       </c>
       <c r="B656">
-        <v>-9.0982695327357597</v>
+        <v>-8.4019084927025194</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>-8.7163919906823306</v>
+        <v>-8.5394544976965996</v>
       </c>
       <c r="B657">
-        <v>-9.1258663714710213</v>
+        <v>-8.4018541712270487</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>-8.70672323574607</v>
+        <v>-8.5201240491280892</v>
       </c>
       <c r="B658">
-        <v>-9.1567030534543399</v>
+        <v>-8.4029759823229</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>-8.7192704274638011</v>
+        <v>-8.5078940003595207</v>
       </c>
       <c r="B659">
-        <v>-9.1876391026638302</v>
+        <v>-8.4077729809806598</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>-8.75396964732988</v>
+        <v>-8.5182541638483009</v>
       </c>
       <c r="B660">
-        <v>-9.2148870589915504</v>
+        <v>-8.4152432412084597</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>-8.8023405286454199</v>
+        <v>-8.5609326025608699</v>
       </c>
       <c r="B661">
-        <v>-9.2385814978161207</v>
+        <v>-8.42336603935372</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>-8.8518615092778496</v>
+        <v>-8.6196335495767293</v>
       </c>
       <c r="B662">
-        <v>-9.2570405858253206</v>
+        <v>-8.43029150235839</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>-8.8880232163593114</v>
+        <v>-8.6558698162660903</v>
       </c>
       <c r="B663">
-        <v>-9.2739493818592909</v>
+        <v>-8.4349078242704092</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>-8.8994877660537313</v>
+        <v>-8.6566935985059903</v>
       </c>
       <c r="B664">
-        <v>-9.2790490130083114</v>
+        <v>-8.4371153302607489</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>-8.8798832338889202</v>
+        <v>-8.6309873372449797</v>
       </c>
       <c r="B665">
-        <v>-9.283210713517251</v>
+        <v>-8.4356927789248992</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>-8.8196974033645397</v>
+        <v>-8.5845362278544002</v>
       </c>
       <c r="B666">
-        <v>-9.2876481421385311</v>
+        <v>-8.431517440860139</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>-8.7313170738296098</v>
+        <v>-8.5351657861103494</v>
       </c>
       <c r="B667">
-        <v>-9.2895169033630012</v>
+        <v>-8.425434280023369</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>-8.64736623455636</v>
+        <v>-8.5083806801255992</v>
       </c>
       <c r="B668">
-        <v>-9.2961998423772005</v>
+        <v>-8.4188469105901689</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>-8.5916093281127495</v>
+        <v>-8.5196293162323702</v>
       </c>
       <c r="B669">
-        <v>-9.3029841282519712</v>
+        <v>-8.4129419349452697</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>-8.5730964127918199</v>
+        <v>-8.5517851867105996</v>
       </c>
       <c r="B670">
-        <v>-9.3104998227542417</v>
+        <v>-8.4111371363426191</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>-8.5910912255072596</v>
+        <v>-8.5833824667491889</v>
       </c>
       <c r="B671">
-        <v>-9.3178625775480413</v>
+        <v>-8.4159955346025601</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>-8.6418878000125599</v>
+        <v>-8.6032722861551694</v>
       </c>
       <c r="B672">
-        <v>-9.3243510761446213</v>
+        <v>-8.427772223651699</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>-8.7063262558414305</v>
+        <v>-8.6160266462924504</v>
       </c>
       <c r="B673">
-        <v>-9.3318459208157805</v>
+        <v>-8.4446030063571396</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>-8.7618985713348803</v>
+        <v>-8.6281794746849805</v>
       </c>
       <c r="B674">
-        <v>-9.3427095431744007</v>
+        <v>-8.4644052196936403</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>-8.8082434632348914</v>
+        <v>-8.6358360771907403</v>
       </c>
       <c r="B675">
-        <v>-9.3580050625150015</v>
+        <v>-8.4851505570533394</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>-8.8352595219971999</v>
+        <v>-8.6322813776931895</v>
       </c>
       <c r="B676">
-        <v>-9.3785836399435407</v>
+        <v>-8.5033433546887398</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>-8.8598958985624208</v>
+        <v>-8.6174599401391401</v>
       </c>
       <c r="B677">
-        <v>-9.4021332825611914</v>
+        <v>-8.5180838711184492</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>-8.8693164119334398</v>
+        <v>-8.5932785249115788</v>
       </c>
       <c r="B678">
-        <v>-9.4254833639548217</v>
+        <v>-8.5267052288747696</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>-8.8279289582716309</v>
+        <v>-8.5663532880981599</v>
       </c>
       <c r="B679">
-        <v>-9.4445836806629018</v>
+        <v>-8.5293778148545787</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>-8.7253964942290807</v>
+        <v>-8.5455617571521891</v>
       </c>
       <c r="B680">
-        <v>-9.4563217595658209</v>
+        <v>-8.522792800736779</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>-8.6033430611229704</v>
+        <v>-8.5339470355734299</v>
       </c>
       <c r="B681">
-        <v>-9.4603334452094217</v>
+        <v>-8.5082295256475202</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>-8.5151972285622897</v>
+        <v>-8.5307516210448107</v>
       </c>
       <c r="B682">
-        <v>-9.4418000844725398</v>
+        <v>-8.4908959573113005</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>-8.4780968192788002</v>
+        <v>-8.5351889080010199</v>
       </c>
       <c r="B683">
-        <v>-9.4365636669662702</v>
+        <v>-8.475413596541209</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>-8.4811059087414407</v>
+        <v>-8.5451046629675798</v>
       </c>
       <c r="B684">
-        <v>-9.4335160304980015</v>
+        <v>-8.4661091797598296</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>-8.5074594532697212</v>
+        <v>-8.5557156269887695</v>
       </c>
       <c r="B685">
-        <v>-9.4341503664312611</v>
+        <v>-8.46549770784606</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>-8.5680404391538207</v>
+        <v>-8.5639201196904509</v>
       </c>
       <c r="B686">
-        <v>-9.4374102536387809</v>
+        <v>-8.4721139114813191</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>-8.636623354870391</v>
+        <v>-8.5653135188666898</v>
       </c>
       <c r="B687">
-        <v>-9.4414304052303013</v>
+        <v>-8.4851732356142389</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>-8.7017588715784413</v>
+        <v>-8.5530050347405009</v>
       </c>
       <c r="B688">
-        <v>-9.4460677400194903</v>
+        <v>-8.4993751595544893</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>-8.7512300099122999</v>
+        <v>-8.5223502622900504</v>
       </c>
       <c r="B689">
-        <v>-9.4481691080003216</v>
+        <v>-8.5111473564847593</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>-8.77188025528236</v>
+        <v>-8.4801303867298508</v>
       </c>
       <c r="B690">
-        <v>-9.4496052616210502</v>
+        <v>-8.51916294889641</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>-8.7593948555062511</v>
+        <v>-8.4472922262211103</v>
       </c>
       <c r="B691">
-        <v>-9.4525727462996514</v>
+        <v>-8.5235031919462791</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>-8.7149589717331395</v>
+        <v>-8.4397619322740702</v>
       </c>
       <c r="B692">
-        <v>-9.4579201885779103</v>
+        <v>-8.5138021261600798</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>-8.6447905129703813</v>
+        <v>-8.4628079393094602</v>
       </c>
       <c r="B693">
-        <v>-9.4641564287729913</v>
+        <v>-8.5244364765630891</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>-8.5743539406892708</v>
+        <v>-8.5073923303684804</v>
       </c>
       <c r="B694">
-        <v>-9.4692993534869707</v>
+        <v>-8.5381959850771505</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>-8.5218185863090596</v>
+        <v>-8.5406820278920499</v>
       </c>
       <c r="B695">
-        <v>-9.4715995394455206</v>
+        <v>-8.5547476352370495</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>-8.49057309895597</v>
+        <v>-8.5529081519361405</v>
       </c>
       <c r="B696">
-        <v>-9.4715452179700499</v>
+        <v>-8.576511736784509</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>-8.4712426503874596</v>
+        <v>-8.5492149462107996</v>
       </c>
       <c r="B697">
-        <v>-9.4726670290659012</v>
+        <v>-8.6022614830714605</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>-8.4590126016188911</v>
+        <v>-8.534341069086679</v>
       </c>
       <c r="B698">
-        <v>-9.477464027723661</v>
+        <v>-8.6273722656440786</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>-8.4693727651076713</v>
+        <v>-8.5163943738355705</v>
       </c>
       <c r="B699">
-        <v>-9.4849342879514609</v>
+        <v>-8.6596982714036788</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>-8.5120512038202403</v>
+        <v>-8.4997531104501096</v>
       </c>
       <c r="B700">
-        <v>-9.4930570860967212</v>
+        <v>-8.6843745703949899</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>-8.5707521508360998</v>
+        <v>-8.4806585865448909</v>
       </c>
       <c r="B701">
-        <v>-9.4999825491013912</v>
+        <v>-8.6967434071482206</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>-8.6069884175254607</v>
+        <v>-8.4579239513790689</v>
       </c>
       <c r="B702">
-        <v>-9.5045988710134104</v>
+        <v>-8.7005330044682605</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>-8.6078121997653607</v>
+        <v>-8.4347412504484698</v>
       </c>
       <c r="B703">
-        <v>-9.5068063770037501</v>
+        <v>-8.6966091744953893</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>-8.5821059385043501</v>
+        <v>-8.4112537515368402</v>
       </c>
       <c r="B704">
-        <v>-9.5053838256679004</v>
+        <v>-8.6866500771783794</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>-8.5356548291137706</v>
+        <v>-8.3901078000784093</v>
       </c>
       <c r="B705">
-        <v>-9.5012084876031402</v>
+        <v>-8.6738369655779088</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>-8.4862843873697198</v>
+        <v>-8.3719359066904193</v>
       </c>
       <c r="B706">
-        <v>-9.4951253267663702</v>
+        <v>-8.6652294675355392</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>-8.4594992813849696</v>
+        <v>-8.3642911557046702</v>
       </c>
       <c r="B707">
-        <v>-9.4885379573331701</v>
+        <v>-8.6637831544096997</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>-8.4707479174917406</v>
+        <v>-8.3745003439424703</v>
       </c>
       <c r="B708">
-        <v>-9.4826329816882708</v>
+        <v>-8.6684593171301803</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>-8.50290378796997</v>
+        <v>-8.4040010730651993</v>
       </c>
       <c r="B709">
-        <v>-9.4808281830856203</v>
+        <v>-8.6764337203717101</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>-8.5345010680085593</v>
+        <v>-8.4377134348575602</v>
       </c>
       <c r="B710">
-        <v>-9.4856865813455613</v>
+        <v>-8.6849292593664096</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>-8.5543908874145398</v>
+        <v>-8.4592223626587</v>
       </c>
       <c r="B711">
-        <v>-9.4974632703947002</v>
+        <v>-8.6915279131375094</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>-8.5671452475518208</v>
+        <v>-8.4630375589304698</v>
       </c>
       <c r="B712">
-        <v>-9.5142940531001408</v>
+        <v>-8.6908782391993391</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>-8.5792980759443509</v>
+        <v>-8.4565894369314893</v>
       </c>
       <c r="B713">
-        <v>-9.5340962664366415</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A714">
-        <v>-8.5869546784501107</v>
-      </c>
-      <c r="B714">
-        <v>-9.5548416037963406</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A715">
-        <v>-8.5833999789525599</v>
-      </c>
-      <c r="B715">
-        <v>-9.573034401431741</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A716">
-        <v>-8.5685785413985105</v>
-      </c>
-      <c r="B716">
-        <v>-9.5877749178614504</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A717">
-        <v>-8.5443971261709493</v>
-      </c>
-      <c r="B717">
-        <v>-9.5963962756177708</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A718">
-        <v>-8.5174718893575303</v>
-      </c>
-      <c r="B718">
-        <v>-9.5990688615975799</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A719">
-        <v>-8.4966803584115596</v>
-      </c>
-      <c r="B719">
-        <v>-9.5924838474797802</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A720">
-        <v>-8.4850656368328004</v>
-      </c>
-      <c r="B720">
-        <v>-9.5779205723905214</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A721">
-        <v>-8.4818702223041811</v>
-      </c>
-      <c r="B721">
-        <v>-9.5605870040543017</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A722">
-        <v>-8.4863075092603903</v>
-      </c>
-      <c r="B722">
-        <v>-9.5451046432842102</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A723">
-        <v>-8.4962232642269502</v>
-      </c>
-      <c r="B723">
-        <v>-9.5358002265028308</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A724">
-        <v>-8.50683422824814</v>
-      </c>
-      <c r="B724">
-        <v>-9.5351887545890612</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A725">
-        <v>-8.5150387209498213</v>
-      </c>
-      <c r="B725">
-        <v>-9.5418049582243203</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A726">
-        <v>-8.5164321201260602</v>
-      </c>
-      <c r="B726">
-        <v>-9.5548642823572401</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A727">
-        <v>-8.5041236359998713</v>
-      </c>
-      <c r="B727">
-        <v>-9.5690662062974905</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A728">
-        <v>-8.4734688635494209</v>
-      </c>
-      <c r="B728">
-        <v>-9.5808384032277605</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A729">
-        <v>-8.4312489879892212</v>
-      </c>
-      <c r="B729">
-        <v>-9.5888539956394112</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A730">
-        <v>-8.3984108274804807</v>
-      </c>
-      <c r="B730">
-        <v>-9.5931942386892803</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A731">
-        <v>-8.3908805335334407</v>
-      </c>
-      <c r="B731">
-        <v>-9.583493172903081</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A732">
-        <v>-8.4139265405688306</v>
-      </c>
-      <c r="B732">
-        <v>-9.5941275233060903</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A733">
-        <v>-8.4585109316278508</v>
-      </c>
-      <c r="B733">
-        <v>-9.6078870318201517</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A734">
-        <v>-8.4918006291514203</v>
-      </c>
-      <c r="B734">
-        <v>-9.6244386819800507</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A735">
-        <v>-8.5040267531955109</v>
-      </c>
-      <c r="B735">
-        <v>-9.6462027835275101</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A736">
-        <v>-8.50033354747017</v>
-      </c>
-      <c r="B736">
-        <v>-9.6719525298144617</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A737">
-        <v>-8.4854596703460494</v>
-      </c>
-      <c r="B737">
-        <v>-9.6970633123870797</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A738">
-        <v>-8.4675129750949409</v>
-      </c>
-      <c r="B738">
-        <v>-9.72938931814668</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A739">
-        <v>-8.45087171170948</v>
-      </c>
-      <c r="B739">
-        <v>-9.7540656171379911</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A740">
-        <v>-8.4317771878042613</v>
-      </c>
-      <c r="B740">
-        <v>-9.7664344538912218</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A741">
-        <v>-8.4090425526384394</v>
-      </c>
-      <c r="B741">
-        <v>-9.7702240512112617</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A742">
-        <v>-8.3858598517078402</v>
-      </c>
-      <c r="B742">
-        <v>-9.7663002212383905</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A743">
-        <v>-8.3623723527962106</v>
-      </c>
-      <c r="B743">
-        <v>-9.7563411239213806</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A744">
-        <v>-8.3412264013377797</v>
-      </c>
-      <c r="B744">
-        <v>-9.74352801232091</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A745">
-        <v>-8.3230545079497897</v>
-      </c>
-      <c r="B745">
-        <v>-9.7349205142785404</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A746">
-        <v>-8.3154097569640406</v>
-      </c>
-      <c r="B746">
-        <v>-9.7334742011527009</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A747">
-        <v>-8.3256189452018408</v>
-      </c>
-      <c r="B747">
-        <v>-9.7381503638731814</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A748">
-        <v>-8.3551196743245697</v>
-      </c>
-      <c r="B748">
-        <v>-9.7461247671147113</v>
-      </c>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A749">
-        <v>-8.3888320361169306</v>
-      </c>
-      <c r="B749">
-        <v>-9.7546203061094108</v>
-      </c>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A750">
-        <v>-8.4103409639180704</v>
-      </c>
-      <c r="B750">
-        <v>-9.7612189598805106</v>
-      </c>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A751">
-        <v>-8.4141561601898403</v>
-      </c>
-      <c r="B751">
-        <v>-9.7605692859423403</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A752">
-        <v>-8.4077080381908598</v>
-      </c>
-      <c r="B752">
-        <v>-9.7551932225347713</v>
+        <v>-8.6855021757917701</v>
       </c>
     </row>
   </sheetData>
